--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2773974.786203676</v>
+        <v>2773256.134764391</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2654856.114805179</v>
+        <v>2654856.114805182</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736547</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -707,19 +707,19 @@
         <v>10.00967878293136</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>8.816525072005941</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>10.00967878293136</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="V3" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -820,67 +820,67 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="E4" t="n">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="F4" t="n">
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="V6" t="n">
-        <v>8.816525072005941</v>
-      </c>
-      <c r="W6" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1060,61 +1060,61 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="U7" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="F7" t="n">
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5096686531243404</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.5096686531243404</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>10.5193474360557</v>
@@ -1218,11 +1218,11 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1288,64 +1288,64 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="E10" t="n">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>10.5193474360557</v>
       </c>
-      <c r="F10" t="n">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="G10" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>286.941645190491</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>274.9529621481728</v>
       </c>
       <c r="D11" t="n">
         <v>265.9342661927008</v>
       </c>
       <c r="E11" t="n">
-        <v>287.6764037626063</v>
+        <v>38.86654169663466</v>
       </c>
       <c r="F11" t="n">
         <v>306.8482198505835</v>
       </c>
       <c r="G11" t="n">
-        <v>308.2753554535429</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.148175365646</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>48.41490258865655</v>
+        <v>48.41490258865649</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.66173702352448</v>
+        <v>70.66173702352445</v>
       </c>
       <c r="T11" t="n">
         <v>116.738303754939</v>
@@ -1427,7 +1427,7 @@
         <v>149.134533407241</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>230.4480224306702</v>
       </c>
       <c r="W11" t="n">
         <v>255.7481219086271</v>
@@ -1436,7 +1436,7 @@
         <v>275.0483801413737</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.61256963125453</v>
+        <v>286.4449779375724</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.32307605837826</v>
       </c>
       <c r="I12" t="n">
-        <v>58.37470580830794</v>
+        <v>58.37470580830792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>42.37278301643497</v>
+        <v>42.37278301643492</v>
       </c>
       <c r="S12" t="n">
         <v>146.2414144859818</v>
@@ -1540,13 +1540,13 @@
         <v>47.79438949213277</v>
       </c>
       <c r="G13" t="n">
-        <v>63.842058690411</v>
+        <v>63.84205869041101</v>
       </c>
       <c r="H13" t="n">
-        <v>52.59892542197037</v>
+        <v>52.59892542197038</v>
       </c>
       <c r="I13" t="n">
-        <v>32.77203779996178</v>
+        <v>32.77203779996175</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.65685186576083</v>
+        <v>34.6568518657608</v>
       </c>
       <c r="S13" t="n">
         <v>104.4546309132339</v>
@@ -1607,13 +1607,13 @@
         <v>286.941645190491</v>
       </c>
       <c r="C14" t="n">
-        <v>122.7503999445277</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>265.9342661927008</v>
+        <v>86.11711818574346</v>
       </c>
       <c r="E14" t="n">
-        <v>287.6764037626063</v>
+        <v>287.6764037626064</v>
       </c>
       <c r="F14" t="n">
         <v>306.8482198505835</v>
@@ -1622,10 +1622,10 @@
         <v>308.2753554535429</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>221.148175365646</v>
       </c>
       <c r="I14" t="n">
-        <v>48.41490258865649</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.66173702352444</v>
+        <v>70.66173702352447</v>
       </c>
       <c r="T14" t="n">
         <v>116.738303754939</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>149.134533407241</v>
       </c>
       <c r="V14" t="n">
         <v>230.4480224306702</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>255.7481219086271</v>
       </c>
       <c r="X14" t="n">
-        <v>275.0483801413737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.4449779375724</v>
+        <v>286.4449779375725</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.55835606518814</v>
+        <v>78.55835606518815</v>
       </c>
       <c r="C16" t="n">
-        <v>64.75835091058862</v>
+        <v>64.75835091058863</v>
       </c>
       <c r="D16" t="n">
-        <v>48.37971530816701</v>
+        <v>48.37971530816702</v>
       </c>
       <c r="E16" t="n">
-        <v>47.32746516394646</v>
+        <v>47.32746516394647</v>
       </c>
       <c r="F16" t="n">
-        <v>47.79438949213277</v>
+        <v>47.79438949213278</v>
       </c>
       <c r="G16" t="n">
-        <v>63.842058690411</v>
+        <v>63.84205869041102</v>
       </c>
       <c r="H16" t="n">
-        <v>52.59892542197036</v>
+        <v>52.59892542197038</v>
       </c>
       <c r="I16" t="n">
-        <v>32.77203779996176</v>
+        <v>32.77203779996177</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.6568518657608</v>
+        <v>34.65685186576081</v>
       </c>
       <c r="S16" t="n">
         <v>104.4546309132339</v>
@@ -1847,16 +1847,16 @@
         <v>222.8230699841369</v>
       </c>
       <c r="D17" t="n">
-        <v>213.8043740286649</v>
+        <v>213.8043740286648</v>
       </c>
       <c r="E17" t="n">
         <v>235.5465115985704</v>
       </c>
       <c r="F17" t="n">
-        <v>254.7183276865476</v>
+        <v>254.7183276865475</v>
       </c>
       <c r="G17" t="n">
-        <v>256.1454632895071</v>
+        <v>256.145463289507</v>
       </c>
       <c r="H17" t="n">
         <v>169.01828320161</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>18.53184485948852</v>
+        <v>18.53184485948849</v>
       </c>
       <c r="T17" t="n">
-        <v>64.60841159090303</v>
+        <v>64.608411590903</v>
       </c>
       <c r="U17" t="n">
-        <v>97.00464124320504</v>
+        <v>97.00464124320501</v>
       </c>
       <c r="V17" t="n">
-        <v>178.3181302666343</v>
+        <v>178.3181302666342</v>
       </c>
       <c r="W17" t="n">
-        <v>203.6182297445912</v>
+        <v>203.6182297445911</v>
       </c>
       <c r="X17" t="n">
-        <v>222.9184879773378</v>
+        <v>222.9184879773377</v>
       </c>
       <c r="Y17" t="n">
-        <v>234.3150857735365</v>
+        <v>234.3150857735366</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.42846390115221</v>
+        <v>26.42846390115218</v>
       </c>
       <c r="C19" t="n">
-        <v>12.6284587465527</v>
+        <v>12.62845874655267</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>11.71216652637508</v>
+        <v>11.71216652637505</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4690332579344449</v>
+        <v>0.4690332579344165</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>52.32473874919796</v>
+        <v>89.11737398531757</v>
       </c>
       <c r="T19" t="n">
-        <v>74.5857602302513</v>
+        <v>74.58576023025127</v>
       </c>
       <c r="U19" t="n">
         <v>129.0146023726944</v>
@@ -2062,13 +2062,13 @@
         <v>102.8366003007778</v>
       </c>
       <c r="W19" t="n">
-        <v>128.0034863713911</v>
+        <v>128.003486371391</v>
       </c>
       <c r="X19" t="n">
-        <v>73.64858836719418</v>
+        <v>73.64858836719415</v>
       </c>
       <c r="Y19" t="n">
-        <v>101.3160913593812</v>
+        <v>64.52345612326184</v>
       </c>
     </row>
     <row r="20">
@@ -2084,16 +2084,16 @@
         <v>222.8230699841369</v>
       </c>
       <c r="D20" t="n">
-        <v>213.8043740286649</v>
+        <v>213.8043740286648</v>
       </c>
       <c r="E20" t="n">
         <v>235.5465115985704</v>
       </c>
       <c r="F20" t="n">
-        <v>254.7183276865476</v>
+        <v>254.7183276865475</v>
       </c>
       <c r="G20" t="n">
-        <v>256.1454632895071</v>
+        <v>256.145463289507</v>
       </c>
       <c r="H20" t="n">
         <v>169.01828320161</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>18.53184485948852</v>
+        <v>18.53184485948849</v>
       </c>
       <c r="T20" t="n">
-        <v>64.60841159090303</v>
+        <v>64.608411590903</v>
       </c>
       <c r="U20" t="n">
-        <v>97.00464124320504</v>
+        <v>97.00464124320501</v>
       </c>
       <c r="V20" t="n">
-        <v>178.3181302666343</v>
+        <v>178.3181302666342</v>
       </c>
       <c r="W20" t="n">
-        <v>203.6182297445912</v>
+        <v>203.6182297445911</v>
       </c>
       <c r="X20" t="n">
-        <v>222.9184879773378</v>
+        <v>222.9184879773377</v>
       </c>
       <c r="Y20" t="n">
         <v>234.3150857735365</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.42846390115221</v>
+        <v>26.42846390115218</v>
       </c>
       <c r="C22" t="n">
-        <v>12.6284587465527</v>
+        <v>12.62845874655267</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>36.79263523611939</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>11.71216652637508</v>
+        <v>11.71216652637505</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4690332579344449</v>
+        <v>0.4690332579344165</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>52.32473874919796</v>
+        <v>89.11737398531757</v>
       </c>
       <c r="T22" t="n">
-        <v>74.5857602302513</v>
+        <v>74.58576023025127</v>
       </c>
       <c r="U22" t="n">
         <v>129.0146023726944</v>
@@ -2299,13 +2299,13 @@
         <v>102.8366003007778</v>
       </c>
       <c r="W22" t="n">
-        <v>128.0034863713911</v>
+        <v>128.003486371391</v>
       </c>
       <c r="X22" t="n">
-        <v>73.64858836719418</v>
+        <v>73.64858836719415</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.52345612326187</v>
+        <v>64.52345612326184</v>
       </c>
     </row>
     <row r="23">
@@ -2321,16 +2321,16 @@
         <v>222.8230699841369</v>
       </c>
       <c r="D23" t="n">
-        <v>213.8043740286649</v>
+        <v>213.8043740286648</v>
       </c>
       <c r="E23" t="n">
         <v>235.5465115985704</v>
       </c>
       <c r="F23" t="n">
-        <v>254.7183276865476</v>
+        <v>254.7183276865475</v>
       </c>
       <c r="G23" t="n">
-        <v>256.1454632895071</v>
+        <v>256.145463289507</v>
       </c>
       <c r="H23" t="n">
         <v>169.01828320161</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>18.53184485948852</v>
+        <v>18.53184485948849</v>
       </c>
       <c r="T23" t="n">
-        <v>64.60841159090303</v>
+        <v>64.608411590903</v>
       </c>
       <c r="U23" t="n">
-        <v>97.00464124320504</v>
+        <v>97.00464124320501</v>
       </c>
       <c r="V23" t="n">
-        <v>178.3181302666343</v>
+        <v>178.3181302666347</v>
       </c>
       <c r="W23" t="n">
-        <v>203.6182297445912</v>
+        <v>203.6182297445911</v>
       </c>
       <c r="X23" t="n">
-        <v>222.9184879773378</v>
+        <v>222.9184879773377</v>
       </c>
       <c r="Y23" t="n">
         <v>234.3150857735365</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.42846390115221</v>
+        <v>26.42846390115218</v>
       </c>
       <c r="C25" t="n">
-        <v>12.6284587465527</v>
+        <v>12.62845874655267</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>11.71216652637508</v>
+        <v>11.71216652637505</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4690332579344449</v>
+        <v>0.4690332579344165</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>52.32473874919796</v>
+        <v>52.32473874919793</v>
       </c>
       <c r="T25" t="n">
-        <v>74.5857602302513</v>
+        <v>74.58576023025127</v>
       </c>
       <c r="U25" t="n">
-        <v>165.8072376088138</v>
+        <v>129.0146023726944</v>
       </c>
       <c r="V25" t="n">
         <v>102.8366003007778</v>
       </c>
       <c r="W25" t="n">
-        <v>128.0034863713911</v>
+        <v>164.7961216075107</v>
       </c>
       <c r="X25" t="n">
-        <v>73.64858836719418</v>
+        <v>73.64858836719415</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.52345612326187</v>
+        <v>64.52345612326184</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286.9416451904911</v>
+        <v>286.9416451904912</v>
       </c>
       <c r="C26" t="n">
-        <v>274.9529621481728</v>
+        <v>274.9529621481729</v>
       </c>
       <c r="D26" t="n">
-        <v>265.9342661927008</v>
+        <v>265.9342661927009</v>
       </c>
       <c r="E26" t="n">
         <v>287.6764037626064</v>
@@ -2570,10 +2570,10 @@
         <v>308.275355453543</v>
       </c>
       <c r="H26" t="n">
-        <v>221.148175365646</v>
+        <v>221.1481753656461</v>
       </c>
       <c r="I26" t="n">
-        <v>48.41490258865655</v>
+        <v>48.41490258865656</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.66173702352448</v>
+        <v>70.66173702352452</v>
       </c>
       <c r="T26" t="n">
         <v>116.738303754939</v>
@@ -2615,7 +2615,7 @@
         <v>230.4480224306702</v>
       </c>
       <c r="W26" t="n">
-        <v>255.7481219086271</v>
+        <v>255.7481219086272</v>
       </c>
       <c r="X26" t="n">
         <v>275.0483801413737</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>42.37278301643494</v>
+        <v>42.37278301643492</v>
       </c>
       <c r="S27" t="n">
         <v>146.2414144859818</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.55835606518816</v>
+        <v>78.55835606518821</v>
       </c>
       <c r="C28" t="n">
-        <v>64.75835091058865</v>
+        <v>64.75835091058869</v>
       </c>
       <c r="D28" t="n">
-        <v>48.37971530816704</v>
+        <v>48.37971530816708</v>
       </c>
       <c r="E28" t="n">
-        <v>47.32746516394648</v>
+        <v>47.32746516394653</v>
       </c>
       <c r="F28" t="n">
-        <v>47.79438949213279</v>
+        <v>47.79438949213284</v>
       </c>
       <c r="G28" t="n">
-        <v>63.84205869041104</v>
+        <v>63.84205869041108</v>
       </c>
       <c r="H28" t="n">
-        <v>52.5989254219704</v>
+        <v>52.59892542197043</v>
       </c>
       <c r="I28" t="n">
-        <v>32.77203779996179</v>
+        <v>32.77203779996183</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65685186576084</v>
+        <v>34.65685186576087</v>
       </c>
       <c r="S28" t="n">
-        <v>104.4546309132339</v>
+        <v>104.454630913234</v>
       </c>
       <c r="T28" t="n">
-        <v>126.7156523942872</v>
+        <v>126.7156523942873</v>
       </c>
       <c r="U28" t="n">
         <v>181.1444945367304</v>
@@ -2773,13 +2773,13 @@
         <v>154.9664924648138</v>
       </c>
       <c r="W28" t="n">
-        <v>180.133378535427</v>
+        <v>180.1333785354271</v>
       </c>
       <c r="X28" t="n">
-        <v>125.7784805312301</v>
+        <v>125.7784805312302</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.6533482872978</v>
+        <v>116.6533482872979</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>286.9416451904911</v>
       </c>
       <c r="C29" t="n">
-        <v>274.9529621481714</v>
+        <v>274.9529621481728</v>
       </c>
       <c r="D29" t="n">
         <v>265.9342661927008</v>
@@ -2810,7 +2810,7 @@
         <v>221.148175365646</v>
       </c>
       <c r="I29" t="n">
-        <v>48.41490258865653</v>
+        <v>48.41490258865652</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>96.32307605837826</v>
       </c>
       <c r="I30" t="n">
-        <v>58.37470580830792</v>
+        <v>58.37470580830791</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>42.37278301643492</v>
+        <v>42.37278301643491</v>
       </c>
       <c r="S30" t="n">
         <v>146.2414144859818</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.55835606518818</v>
+        <v>78.55835606518819</v>
       </c>
       <c r="C31" t="n">
-        <v>64.75835091058866</v>
+        <v>64.75835091058867</v>
       </c>
       <c r="D31" t="n">
-        <v>48.37971530816705</v>
+        <v>48.37971530816706</v>
       </c>
       <c r="E31" t="n">
-        <v>47.3274651639465</v>
+        <v>47.32746516394651</v>
       </c>
       <c r="F31" t="n">
-        <v>47.79438949213281</v>
+        <v>47.79438949213282</v>
       </c>
       <c r="G31" t="n">
-        <v>63.84205869041105</v>
+        <v>63.84205869041106</v>
       </c>
       <c r="H31" t="n">
-        <v>52.59892542197041</v>
+        <v>52.59892542197042</v>
       </c>
       <c r="I31" t="n">
-        <v>32.7720377999618</v>
+        <v>32.77203779996181</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>180.133378535427</v>
       </c>
       <c r="X31" t="n">
-        <v>125.7784805312301</v>
+        <v>125.7784805312302</v>
       </c>
       <c r="Y31" t="n">
         <v>116.6533482872978</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.4414701200699</v>
+        <v>286.44147012007</v>
       </c>
       <c r="C32" t="n">
-        <v>274.4527870777516</v>
+        <v>274.4527870777517</v>
       </c>
       <c r="D32" t="n">
-        <v>265.4340911222796</v>
+        <v>265.4340911222797</v>
       </c>
       <c r="E32" t="n">
         <v>287.1762286921852</v>
@@ -3041,13 +3041,13 @@
         <v>306.3480447801624</v>
       </c>
       <c r="G32" t="n">
-        <v>307.7751803831218</v>
+        <v>307.7751803831219</v>
       </c>
       <c r="H32" t="n">
-        <v>220.6480002952248</v>
+        <v>220.6480002952249</v>
       </c>
       <c r="I32" t="n">
-        <v>47.91472751823534</v>
+        <v>47.91472751823541</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.1615619531033</v>
+        <v>70.16156195310337</v>
       </c>
       <c r="T32" t="n">
-        <v>116.2381286845178</v>
+        <v>116.2381286845179</v>
       </c>
       <c r="U32" t="n">
-        <v>148.6343583368198</v>
+        <v>148.6343583368199</v>
       </c>
       <c r="V32" t="n">
-        <v>229.947847360249</v>
+        <v>229.9478473602491</v>
       </c>
       <c r="W32" t="n">
-        <v>255.2479468382059</v>
+        <v>255.247946838206</v>
       </c>
       <c r="X32" t="n">
         <v>274.5482050709526</v>
       </c>
       <c r="Y32" t="n">
-        <v>285.9448028671513</v>
+        <v>285.9448028671514</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.05818099476699</v>
+        <v>78.05818099476706</v>
       </c>
       <c r="C34" t="n">
-        <v>64.25817584016747</v>
+        <v>64.25817584016754</v>
       </c>
       <c r="D34" t="n">
-        <v>47.87954023774586</v>
+        <v>47.87954023774593</v>
       </c>
       <c r="E34" t="n">
-        <v>46.82729009352531</v>
+        <v>46.82729009352538</v>
       </c>
       <c r="F34" t="n">
-        <v>47.29421442171162</v>
+        <v>47.29421442171169</v>
       </c>
       <c r="G34" t="n">
-        <v>63.34188361998985</v>
+        <v>63.34188361998992</v>
       </c>
       <c r="H34" t="n">
-        <v>52.09875035154921</v>
+        <v>52.09875035154928</v>
       </c>
       <c r="I34" t="n">
-        <v>32.27186272954061</v>
+        <v>32.27186272954068</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.15667679533965</v>
+        <v>34.15667679533972</v>
       </c>
       <c r="S34" t="n">
-        <v>103.9544558428127</v>
+        <v>103.9544558428128</v>
       </c>
       <c r="T34" t="n">
         <v>126.2154773238661</v>
       </c>
       <c r="U34" t="n">
-        <v>180.6443194663092</v>
+        <v>180.6443194663093</v>
       </c>
       <c r="V34" t="n">
-        <v>154.4663173943926</v>
+        <v>154.4663173943927</v>
       </c>
       <c r="W34" t="n">
-        <v>179.6332034650058</v>
+        <v>179.6332034650059</v>
       </c>
       <c r="X34" t="n">
         <v>125.278305460809</v>
       </c>
       <c r="Y34" t="n">
-        <v>116.1531732168766</v>
+        <v>116.1531732168767</v>
       </c>
     </row>
     <row r="35">
@@ -3424,7 +3424,7 @@
         <v>26.42846390115218</v>
       </c>
       <c r="C37" t="n">
-        <v>49.4210939826723</v>
+        <v>12.62845874655267</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>73.64858836719415</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.52345612326184</v>
+        <v>101.3160913593815</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>18.53184485948849</v>
+        <v>18.5318448594885</v>
       </c>
       <c r="T38" t="n">
-        <v>64.608411590903</v>
+        <v>64.60841159090302</v>
       </c>
       <c r="U38" t="n">
         <v>97.00464124320501</v>
@@ -3712,7 +3712,7 @@
         <v>52.32473874919793</v>
       </c>
       <c r="T40" t="n">
-        <v>74.58576023025127</v>
+        <v>92.23738917892412</v>
       </c>
       <c r="U40" t="n">
         <v>129.0146023726944</v>
@@ -3724,7 +3724,7 @@
         <v>128.003486371391</v>
       </c>
       <c r="X40" t="n">
-        <v>91.30021731586706</v>
+        <v>73.64858836719415</v>
       </c>
       <c r="Y40" t="n">
         <v>64.52345612326184</v>
@@ -3740,19 +3740,19 @@
         <v>267.6030870521148</v>
       </c>
       <c r="C41" t="n">
-        <v>7.645191942857464</v>
+        <v>255.6144040097965</v>
       </c>
       <c r="D41" t="n">
         <v>246.5957080543245</v>
       </c>
       <c r="E41" t="n">
-        <v>268.33784562423</v>
+        <v>268.3378456242301</v>
       </c>
       <c r="F41" t="n">
-        <v>287.5096617122072</v>
+        <v>117.3677826681386</v>
       </c>
       <c r="G41" t="n">
-        <v>288.9367973151666</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>201.8096172272697</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.32317888514816</v>
+        <v>51.32317888514821</v>
       </c>
       <c r="T41" t="n">
-        <v>97.39974561656267</v>
+        <v>97.39974561656273</v>
       </c>
       <c r="U41" t="n">
         <v>129.7959752688647</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>211.1094642922939</v>
       </c>
       <c r="W41" t="n">
         <v>236.4095637702508</v>
@@ -3806,7 +3806,7 @@
         <v>255.7098220029974</v>
       </c>
       <c r="Y41" t="n">
-        <v>267.1064197991961</v>
+        <v>267.1064197991962</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>42.37278301643492</v>
+        <v>42.37278301643494</v>
       </c>
       <c r="S42" t="n">
         <v>146.2414144859818</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.21979792681185</v>
+        <v>59.21979792681189</v>
       </c>
       <c r="C43" t="n">
-        <v>45.41979277221233</v>
+        <v>45.41979277221238</v>
       </c>
       <c r="D43" t="n">
-        <v>29.04115716979072</v>
+        <v>29.04115716979076</v>
       </c>
       <c r="E43" t="n">
-        <v>27.98890702557017</v>
+        <v>27.98890702557021</v>
       </c>
       <c r="F43" t="n">
-        <v>28.45583135375648</v>
+        <v>28.45583135375652</v>
       </c>
       <c r="G43" t="n">
-        <v>44.50350055203472</v>
+        <v>44.50350055203476</v>
       </c>
       <c r="H43" t="n">
-        <v>33.26036728359408</v>
+        <v>33.26036728359413</v>
       </c>
       <c r="I43" t="n">
-        <v>13.43347966158547</v>
+        <v>13.43347966158552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>15.31829372738451</v>
+        <v>15.31829372738456</v>
       </c>
       <c r="S43" t="n">
-        <v>85.1160727748576</v>
+        <v>85.11607277485764</v>
       </c>
       <c r="T43" t="n">
-        <v>107.3770942559109</v>
+        <v>107.377094255911</v>
       </c>
       <c r="U43" t="n">
-        <v>161.805936398354</v>
+        <v>161.8059363983541</v>
       </c>
       <c r="V43" t="n">
-        <v>135.6279343264374</v>
+        <v>135.6279343264375</v>
       </c>
       <c r="W43" t="n">
         <v>160.7948203970507</v>
       </c>
       <c r="X43" t="n">
-        <v>106.4399223928538</v>
+        <v>106.4399223928539</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.3147901489215</v>
+        <v>97.31479014892155</v>
       </c>
     </row>
     <row r="44">
@@ -3983,19 +3983,19 @@
         <v>246.5957080543245</v>
       </c>
       <c r="E44" t="n">
-        <v>268.33784562423</v>
+        <v>98.19596658016097</v>
       </c>
       <c r="F44" t="n">
         <v>287.5096617122072</v>
       </c>
       <c r="G44" t="n">
-        <v>288.9367973151666</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>201.8096172272697</v>
       </c>
       <c r="I44" t="n">
-        <v>29.07634445028021</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.32317888514816</v>
+        <v>51.32317888514821</v>
       </c>
       <c r="T44" t="n">
-        <v>87.4606088985381</v>
+        <v>97.39974561656271</v>
       </c>
       <c r="U44" t="n">
         <v>129.7959752688647</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>211.1094642922939</v>
       </c>
       <c r="W44" t="n">
         <v>236.4095637702508</v>
@@ -4043,7 +4043,7 @@
         <v>255.7098220029974</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>267.1064197991962</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>42.37278301643492</v>
+        <v>42.37278301643494</v>
       </c>
       <c r="S45" t="n">
         <v>146.2414144859818</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>59.21979792681185</v>
+        <v>59.21979792681189</v>
       </c>
       <c r="C46" t="n">
-        <v>45.41979277221233</v>
+        <v>45.41979277221238</v>
       </c>
       <c r="D46" t="n">
-        <v>29.04115716979072</v>
+        <v>29.04115716979076</v>
       </c>
       <c r="E46" t="n">
-        <v>27.98890702557017</v>
+        <v>27.98890702557021</v>
       </c>
       <c r="F46" t="n">
-        <v>28.45583135375648</v>
+        <v>28.45583135375652</v>
       </c>
       <c r="G46" t="n">
-        <v>44.50350055203472</v>
+        <v>44.50350055203476</v>
       </c>
       <c r="H46" t="n">
-        <v>33.26036728359408</v>
+        <v>33.26036728359413</v>
       </c>
       <c r="I46" t="n">
-        <v>13.43347966158547</v>
+        <v>13.43347966158552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>15.31829372738451</v>
+        <v>15.31829372738456</v>
       </c>
       <c r="S46" t="n">
-        <v>85.1160727748576</v>
+        <v>85.11607277485764</v>
       </c>
       <c r="T46" t="n">
-        <v>107.3770942559109</v>
+        <v>107.377094255911</v>
       </c>
       <c r="U46" t="n">
-        <v>161.805936398354</v>
+        <v>161.8059363983541</v>
       </c>
       <c r="V46" t="n">
-        <v>135.6279343264374</v>
+        <v>135.6279343264375</v>
       </c>
       <c r="W46" t="n">
         <v>160.7948203970507</v>
       </c>
       <c r="X46" t="n">
-        <v>106.4399223928538</v>
+        <v>106.4399223928539</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.3147901489215</v>
+        <v>97.31479014892155</v>
       </c>
     </row>
   </sheetData>
@@ -4328,7 +4328,7 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J2" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="K2" t="n">
         <v>10.71035629773655</v>
@@ -4340,13 +4340,13 @@
         <v>10.71035629773655</v>
       </c>
       <c r="N2" t="n">
-        <v>20.6199382928386</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="O2" t="n">
         <v>20.6199382928386</v>
       </c>
       <c r="P2" t="n">
-        <v>30.52952028794065</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="Q2" t="n">
         <v>40.03871513172544</v>
@@ -4355,16 +4355,16 @@
         <v>29.92792848229982</v>
       </c>
       <c r="S2" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T2" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U2" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V2" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W2" t="n">
         <v>21.02234760148574</v>
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.70635518344859</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="C3" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D3" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E3" t="n">
         <v>0.8007743026345088</v>
@@ -4410,13 +4410,13 @@
         <v>10.71035629773655</v>
       </c>
       <c r="K3" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L3" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M3" t="n">
-        <v>30.12913313662339</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N3" t="n">
         <v>30.12913313662339</v>
@@ -4434,25 +4434,25 @@
         <v>29.92792848229982</v>
       </c>
       <c r="S3" t="n">
-        <v>19.81714183287421</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T3" t="n">
-        <v>19.81714183287421</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U3" t="n">
-        <v>19.81714183287421</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V3" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W3" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X3" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C4" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D4" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E4" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F4" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G4" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H4" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I4" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="J4" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L4" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="M4" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N4" t="n">
         <v>30.12913313662339</v>
       </c>
       <c r="O4" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P4" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="Q4" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="R4" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S4" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T4" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="U4" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V4" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W4" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X4" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y4" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="E5" t="n">
         <v>21.02234760148574</v>
@@ -4565,25 +4565,25 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J5" t="n">
-        <v>10.3099691464193</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="K5" t="n">
-        <v>20.21955114152135</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L5" t="n">
-        <v>20.21955114152135</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M5" t="n">
-        <v>20.21955114152135</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="N5" t="n">
         <v>20.21955114152135</v>
       </c>
       <c r="O5" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P5" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q5" t="n">
         <v>40.03871513172544</v>
@@ -4592,25 +4592,25 @@
         <v>40.03871513172544</v>
       </c>
       <c r="S5" t="n">
-        <v>31.13313425091136</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T5" t="n">
         <v>31.13313425091136</v>
       </c>
       <c r="U5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="E6" t="n">
         <v>0.8007743026345088</v>
@@ -4644,52 +4644,52 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J6" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="M6" t="n">
         <v>10.71035629773655</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
+        <v>10.71035629773655</v>
+      </c>
+      <c r="O6" t="n">
         <v>20.6199382928386</v>
       </c>
-      <c r="L6" t="n">
-        <v>20.6199382928386</v>
-      </c>
-      <c r="M6" t="n">
-        <v>20.6199382928386</v>
-      </c>
-      <c r="N6" t="n">
-        <v>20.6199382928386</v>
-      </c>
-      <c r="O6" t="n">
-        <v>30.52952028794065</v>
-      </c>
       <c r="P6" t="n">
-        <v>30.52952028794065</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="Q6" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R6" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S6" t="n">
         <v>29.92792848229982</v>
       </c>
       <c r="T6" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="U6" t="n">
         <v>19.81714183287421</v>
       </c>
       <c r="V6" t="n">
-        <v>10.91156095206012</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8007743026345088</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C7" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D7" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E7" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F7" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H7" t="n">
         <v>0.8007743026345088</v>
@@ -4726,16 +4726,16 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L7" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M7" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N7" t="n">
-        <v>30.12913313662339</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="O7" t="n">
         <v>40.03871513172544</v>
@@ -4747,28 +4747,28 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R7" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S7" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T7" t="n">
-        <v>40.03871513172544</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="U7" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="V7" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W7" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="X7" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y7" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.19338739466986</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="C8" t="n">
-        <v>35.19338739466986</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="D8" t="n">
         <v>23.12980488926189</v>
@@ -4802,22 +4802,22 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J8" t="n">
-        <v>12.3012350807645</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K8" t="n">
-        <v>24.12475229431485</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="L8" t="n">
-        <v>24.12475229431485</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M8" t="n">
-        <v>24.12475229431485</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="N8" t="n">
-        <v>35.94826950786519</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="O8" t="n">
-        <v>35.94826950786519</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="P8" t="n">
         <v>47.77178672141554</v>
@@ -4826,28 +4826,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R8" t="n">
-        <v>47.25696990007782</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S8" t="n">
-        <v>35.19338739466986</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T8" t="n">
-        <v>35.19338739466986</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="U8" t="n">
-        <v>35.19338739466986</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="V8" t="n">
-        <v>35.19338739466986</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="W8" t="n">
-        <v>35.19338739466986</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="X8" t="n">
-        <v>35.19338739466986</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="Y8" t="n">
-        <v>35.19338739466986</v>
+        <v>23.12980488926189</v>
       </c>
     </row>
     <row r="9">
@@ -4866,7 +4866,7 @@
         <v>13.01901823983628</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F9" t="n">
         <v>0.9554357344283108</v>
@@ -4887,19 +4887,19 @@
         <v>12.77895294797866</v>
       </c>
       <c r="L9" t="n">
+        <v>12.77895294797866</v>
+      </c>
+      <c r="M9" t="n">
+        <v>12.77895294797866</v>
+      </c>
+      <c r="N9" t="n">
         <v>24.60247016152901</v>
       </c>
-      <c r="M9" t="n">
-        <v>35.94826950786519</v>
-      </c>
-      <c r="N9" t="n">
-        <v>35.94826950786519</v>
-      </c>
       <c r="O9" t="n">
-        <v>35.94826950786519</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="P9" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q9" t="n">
         <v>47.77178672141554</v>
@@ -4911,22 +4911,22 @@
         <v>47.77178672141554</v>
       </c>
       <c r="T9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X9" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="Y9" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="C10" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="D10" t="n">
-        <v>35.70820421600757</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="E10" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F10" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G10" t="n">
         <v>0.9554357344283108</v>
@@ -4963,16 +4963,16 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K10" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="L10" t="n">
         <v>12.77895294797866</v>
       </c>
       <c r="M10" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N10" t="n">
-        <v>35.94826950786519</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="O10" t="n">
         <v>35.94826950786519</v>
@@ -4981,31 +4981,31 @@
         <v>47.77178672141554</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="R10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S10" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="T10" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="V10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="W10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1506.550225762611</v>
+        <v>998.1861543111088</v>
       </c>
       <c r="C11" t="n">
-        <v>1506.550225762611</v>
+        <v>720.4558895149746</v>
       </c>
       <c r="D11" t="n">
-        <v>1237.929754860893</v>
+        <v>451.8354186132567</v>
       </c>
       <c r="E11" t="n">
-        <v>947.3475288380581</v>
+        <v>412.5762855863522</v>
       </c>
       <c r="F11" t="n">
-        <v>637.399832019287</v>
+        <v>102.628588767581</v>
       </c>
       <c r="G11" t="n">
-        <v>326.0105840864154</v>
+        <v>102.628588767581</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6285887675811</v>
+        <v>102.628588767581</v>
       </c>
       <c r="I11" t="n">
-        <v>53.72464675883709</v>
+        <v>53.72464675883711</v>
       </c>
       <c r="J11" t="n">
         <v>168.250963400556</v>
       </c>
       <c r="K11" t="n">
-        <v>472.1294420386273</v>
+        <v>472.1294420386275</v>
       </c>
       <c r="L11" t="n">
-        <v>899.0875724614698</v>
+        <v>899.08757246147</v>
       </c>
       <c r="M11" t="n">
         <v>1380.310416942195</v>
       </c>
       <c r="N11" t="n">
-        <v>1848.049121755374</v>
+        <v>1848.049121755375</v>
       </c>
       <c r="O11" t="n">
-        <v>2237.478527880636</v>
+        <v>2237.478527880637</v>
       </c>
       <c r="P11" t="n">
-        <v>2537.690056379755</v>
+        <v>2537.690056379756</v>
       </c>
       <c r="Q11" t="n">
-        <v>2686.232337941854</v>
+        <v>2686.232337941855</v>
       </c>
       <c r="R11" t="n">
-        <v>2686.232337941854</v>
+        <v>2686.232337941855</v>
       </c>
       <c r="S11" t="n">
         <v>2614.856845998901</v>
       </c>
       <c r="T11" t="n">
-        <v>2496.939367458558</v>
+        <v>2496.939367458559</v>
       </c>
       <c r="U11" t="n">
-        <v>2346.298424622961</v>
+        <v>2346.298424622962</v>
       </c>
       <c r="V11" t="n">
-        <v>2346.298424622961</v>
+        <v>2113.522644389962</v>
       </c>
       <c r="W11" t="n">
-        <v>2087.96698835162</v>
+        <v>1855.191208118621</v>
       </c>
       <c r="X11" t="n">
-        <v>1810.140341744172</v>
+        <v>1577.364561511173</v>
       </c>
       <c r="Y11" t="n">
-        <v>1796.390271409572</v>
+        <v>1288.026199958069</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>112.6889960601582</v>
       </c>
       <c r="I12" t="n">
-        <v>53.72464675883709</v>
+        <v>53.72464675883711</v>
       </c>
       <c r="J12" t="n">
-        <v>139.3080431704605</v>
+        <v>139.3080431704606</v>
       </c>
       <c r="K12" t="n">
-        <v>412.0903181565982</v>
+        <v>330.8822804076061</v>
       </c>
       <c r="L12" t="n">
-        <v>836.1232266587781</v>
+        <v>754.9151889097861</v>
       </c>
       <c r="M12" t="n">
-        <v>954.5874954469508</v>
+        <v>1307.878107690053</v>
       </c>
       <c r="N12" t="n">
-        <v>1535.580600302081</v>
+        <v>1888.871212545184</v>
       </c>
       <c r="O12" t="n">
-        <v>1991.567553461235</v>
+        <v>2344.858165704337</v>
       </c>
       <c r="P12" t="n">
         <v>2344.858165704337</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.8084273519462</v>
+        <v>414.8084273519463</v>
       </c>
       <c r="C13" t="n">
-        <v>349.395951684685</v>
+        <v>349.3959516846851</v>
       </c>
       <c r="D13" t="n">
         <v>300.5275523835062</v>
@@ -5191,31 +5191,31 @@
         <v>139.957942942607</v>
       </c>
       <c r="H13" t="n">
-        <v>86.82771524364702</v>
+        <v>86.82771524364696</v>
       </c>
       <c r="I13" t="n">
-        <v>53.72464675883709</v>
+        <v>53.72464675883711</v>
       </c>
       <c r="J13" t="n">
         <v>112.8831489441029</v>
       </c>
       <c r="K13" t="n">
-        <v>274.7305768552363</v>
+        <v>274.7305768552359</v>
       </c>
       <c r="L13" t="n">
-        <v>510.8836567250428</v>
+        <v>510.8836567250424</v>
       </c>
       <c r="M13" t="n">
-        <v>766.2396585402713</v>
+        <v>766.2396585402709</v>
       </c>
       <c r="N13" t="n">
-        <v>1021.186742277372</v>
+        <v>1021.186742277371</v>
       </c>
       <c r="O13" t="n">
         <v>1253.549488066261</v>
       </c>
       <c r="P13" t="n">
-        <v>1445.831902055686</v>
+        <v>1445.831902055685</v>
       </c>
       <c r="Q13" t="n">
         <v>1529.012150174137</v>
@@ -5227,7 +5227,7 @@
         <v>1388.495500902425</v>
       </c>
       <c r="T13" t="n">
-        <v>1260.499892423347</v>
+        <v>1260.499892423348</v>
       </c>
       <c r="U13" t="n">
         <v>1077.525655517559</v>
@@ -5239,10 +5239,10 @@
         <v>739.0409373354979</v>
       </c>
       <c r="X13" t="n">
-        <v>611.991967101932</v>
+        <v>611.9919671019321</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.1603021652676</v>
+        <v>494.1603021652677</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1407.158533418047</v>
+        <v>1276.012800918556</v>
       </c>
       <c r="C14" t="n">
-        <v>1283.168230443776</v>
+        <v>1276.012800918556</v>
       </c>
       <c r="D14" t="n">
-        <v>1014.547759542058</v>
+        <v>1189.025812852149</v>
       </c>
       <c r="E14" t="n">
-        <v>723.9655335192236</v>
+        <v>898.4435868293142</v>
       </c>
       <c r="F14" t="n">
-        <v>414.0178367004523</v>
+        <v>588.495890010543</v>
       </c>
       <c r="G14" t="n">
-        <v>102.628588767581</v>
+        <v>277.1066420776714</v>
       </c>
       <c r="H14" t="n">
-        <v>102.628588767581</v>
+        <v>53.72464675883711</v>
       </c>
       <c r="I14" t="n">
-        <v>53.72464675883712</v>
+        <v>53.72464675883711</v>
       </c>
       <c r="J14" t="n">
-        <v>168.2509634005564</v>
+        <v>168.250963400556</v>
       </c>
       <c r="K14" t="n">
-        <v>472.129442038628</v>
+        <v>472.1294420386275</v>
       </c>
       <c r="L14" t="n">
-        <v>899.0875724614707</v>
+        <v>899.08757246147</v>
       </c>
       <c r="M14" t="n">
-        <v>1380.310416942196</v>
+        <v>1380.310416942195</v>
       </c>
       <c r="N14" t="n">
-        <v>1848.049121755376</v>
+        <v>1848.049121755375</v>
       </c>
       <c r="O14" t="n">
-        <v>2237.478527880638</v>
+        <v>2237.478527880637</v>
       </c>
       <c r="P14" t="n">
-        <v>2537.690056379757</v>
+        <v>2537.690056379756</v>
       </c>
       <c r="Q14" t="n">
-        <v>2686.232337941856</v>
+        <v>2686.232337941855</v>
       </c>
       <c r="R14" t="n">
-        <v>2686.232337941856</v>
+        <v>2686.232337941855</v>
       </c>
       <c r="S14" t="n">
-        <v>2614.856845998902</v>
+        <v>2614.856845998901</v>
       </c>
       <c r="T14" t="n">
         <v>2496.939367458559</v>
       </c>
       <c r="U14" t="n">
-        <v>2496.939367458559</v>
+        <v>2346.298424622962</v>
       </c>
       <c r="V14" t="n">
-        <v>2264.163587225559</v>
+        <v>2113.522644389961</v>
       </c>
       <c r="W14" t="n">
-        <v>2264.163587225559</v>
+        <v>1855.191208118621</v>
       </c>
       <c r="X14" t="n">
-        <v>1986.336940618111</v>
+        <v>1855.191208118621</v>
       </c>
       <c r="Y14" t="n">
-        <v>1696.998579065007</v>
+        <v>1565.852846565517</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>112.6889960601582</v>
       </c>
       <c r="I15" t="n">
-        <v>53.72464675883712</v>
+        <v>53.72464675883711</v>
       </c>
       <c r="J15" t="n">
-        <v>139.3080431704606</v>
+        <v>53.72464675883711</v>
       </c>
       <c r="K15" t="n">
-        <v>139.3080431704606</v>
+        <v>326.506921744975</v>
       </c>
       <c r="L15" t="n">
-        <v>563.3409516726406</v>
+        <v>750.5398302471551</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.303870452908</v>
+        <v>954.5874954469505</v>
       </c>
       <c r="N15" t="n">
-        <v>1697.296975308038</v>
+        <v>1535.580600302081</v>
       </c>
       <c r="O15" t="n">
-        <v>2153.283928467192</v>
+        <v>1991.567553461234</v>
       </c>
       <c r="P15" t="n">
         <v>2344.858165704337</v>
@@ -5428,43 +5428,43 @@
         <v>139.957942942607</v>
       </c>
       <c r="H16" t="n">
-        <v>86.82771524364698</v>
+        <v>86.82771524364699</v>
       </c>
       <c r="I16" t="n">
-        <v>53.72464675883712</v>
+        <v>53.72464675883711</v>
       </c>
       <c r="J16" t="n">
-        <v>112.8831489441021</v>
+        <v>112.8831489441029</v>
       </c>
       <c r="K16" t="n">
-        <v>274.7305768552357</v>
+        <v>274.7305768552364</v>
       </c>
       <c r="L16" t="n">
-        <v>510.8836567250422</v>
+        <v>510.883656725043</v>
       </c>
       <c r="M16" t="n">
-        <v>766.2396585402709</v>
+        <v>766.2396585402715</v>
       </c>
       <c r="N16" t="n">
-        <v>1021.186742277371</v>
+        <v>1021.186742277372</v>
       </c>
       <c r="O16" t="n">
-        <v>1253.549488066261</v>
+        <v>1253.549488066262</v>
       </c>
       <c r="P16" t="n">
-        <v>1445.831902055685</v>
+        <v>1445.831902055686</v>
       </c>
       <c r="Q16" t="n">
-        <v>1529.012150174137</v>
+        <v>1529.012150174138</v>
       </c>
       <c r="R16" t="n">
         <v>1494.005229097611</v>
       </c>
       <c r="S16" t="n">
-        <v>1388.495500902425</v>
+        <v>1388.495500902426</v>
       </c>
       <c r="T16" t="n">
-        <v>1260.499892423347</v>
+        <v>1260.499892423348</v>
       </c>
       <c r="U16" t="n">
         <v>1077.525655517559</v>
@@ -5495,13 +5495,13 @@
         <v>1194.36400009712</v>
       </c>
       <c r="D17" t="n">
-        <v>978.3999859267517</v>
+        <v>978.3999859267515</v>
       </c>
       <c r="E17" t="n">
-        <v>740.4742166352664</v>
+        <v>740.4742166352662</v>
       </c>
       <c r="F17" t="n">
-        <v>483.1829765478447</v>
+        <v>483.1829765478444</v>
       </c>
       <c r="G17" t="n">
         <v>224.450185346322</v>
@@ -5525,10 +5525,10 @@
         <v>1380.310416942196</v>
       </c>
       <c r="N17" t="n">
-        <v>1848.049121755375</v>
+        <v>1848.049121755376</v>
       </c>
       <c r="O17" t="n">
-        <v>2237.478527880637</v>
+        <v>2237.478527880638</v>
       </c>
       <c r="P17" t="n">
         <v>2537.690056379757</v>
@@ -5543,7 +5543,7 @@
         <v>2667.513302730251</v>
       </c>
       <c r="T17" t="n">
-        <v>2602.252280921259</v>
+        <v>2602.252280921258</v>
       </c>
       <c r="U17" t="n">
         <v>2504.267794817011</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.78490790112218</v>
+        <v>78.7849079011221</v>
       </c>
       <c r="C19" t="n">
-        <v>66.02888896521037</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="D19" t="n">
-        <v>66.02888896521037</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="E19" t="n">
-        <v>66.02888896521037</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="F19" t="n">
-        <v>66.02888896521037</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="G19" t="n">
-        <v>54.19841772644767</v>
+        <v>54.19841772644764</v>
       </c>
       <c r="H19" t="n">
         <v>53.72464675883712</v>
@@ -5698,25 +5698,25 @@
         <v>773.8943338122739</v>
       </c>
       <c r="S19" t="n">
-        <v>721.0410623484375</v>
+        <v>683.8767843321551</v>
       </c>
       <c r="T19" t="n">
-        <v>645.701910600709</v>
+        <v>608.5376325844265</v>
       </c>
       <c r="U19" t="n">
-        <v>515.3841304262702</v>
+        <v>478.2198524099877</v>
       </c>
       <c r="V19" t="n">
-        <v>411.5087765871007</v>
+        <v>374.3444985708182</v>
       </c>
       <c r="W19" t="n">
-        <v>282.2123257069077</v>
+        <v>245.0480476906253</v>
       </c>
       <c r="X19" t="n">
-        <v>207.8198122046913</v>
+        <v>170.655534188409</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.4803259830941</v>
+        <v>105.480325983094</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1194.36400009712</v>
       </c>
       <c r="D20" t="n">
-        <v>978.3999859267515</v>
+        <v>978.3999859267512</v>
       </c>
       <c r="E20" t="n">
         <v>740.474216635266</v>
@@ -5762,13 +5762,13 @@
         <v>1380.310416942196</v>
       </c>
       <c r="N20" t="n">
-        <v>1848.049121755375</v>
+        <v>1848.049121755376</v>
       </c>
       <c r="O20" t="n">
-        <v>2237.478527880637</v>
+        <v>2237.478527880638</v>
       </c>
       <c r="P20" t="n">
-        <v>2537.690056379756</v>
+        <v>2537.690056379757</v>
       </c>
       <c r="Q20" t="n">
         <v>2686.232337941856</v>
@@ -5783,7 +5783,7 @@
         <v>2602.252280921258</v>
       </c>
       <c r="U20" t="n">
-        <v>2504.267794817011</v>
+        <v>2504.26779481701</v>
       </c>
       <c r="V20" t="n">
         <v>2324.14847131536</v>
@@ -5838,10 +5838,10 @@
         <v>836.1232266587785</v>
       </c>
       <c r="M21" t="n">
-        <v>1389.086145439046</v>
+        <v>954.5874954469505</v>
       </c>
       <c r="N21" t="n">
-        <v>1970.079250294176</v>
+        <v>1535.580600302081</v>
       </c>
       <c r="O21" t="n">
         <v>1991.567553461234</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>115.9491859174044</v>
+        <v>78.7849079011221</v>
       </c>
       <c r="C22" t="n">
-        <v>103.1931669814926</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="D22" t="n">
-        <v>103.1931669814926</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="E22" t="n">
-        <v>103.1931669814926</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="F22" t="n">
-        <v>66.02888896521037</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="G22" t="n">
-        <v>54.19841772644767</v>
+        <v>54.19841772644764</v>
       </c>
       <c r="H22" t="n">
         <v>53.72464675883712</v>
@@ -5935,25 +5935,25 @@
         <v>773.8943338122739</v>
       </c>
       <c r="S22" t="n">
-        <v>721.0410623484375</v>
+        <v>683.8767843321551</v>
       </c>
       <c r="T22" t="n">
-        <v>645.701910600709</v>
+        <v>608.5376325844265</v>
       </c>
       <c r="U22" t="n">
-        <v>515.3841304262702</v>
+        <v>478.2198524099877</v>
       </c>
       <c r="V22" t="n">
-        <v>411.5087765871007</v>
+        <v>374.3444985708182</v>
       </c>
       <c r="W22" t="n">
-        <v>282.2123257069077</v>
+        <v>245.0480476906253</v>
       </c>
       <c r="X22" t="n">
-        <v>207.8198122046913</v>
+        <v>170.655534188409</v>
       </c>
       <c r="Y22" t="n">
-        <v>142.6446039993763</v>
+        <v>105.480325983094</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1194.36400009712</v>
       </c>
       <c r="D23" t="n">
-        <v>978.3999859267519</v>
+        <v>978.3999859267512</v>
       </c>
       <c r="E23" t="n">
-        <v>740.4742166352664</v>
+        <v>740.474216635266</v>
       </c>
       <c r="F23" t="n">
-        <v>483.1829765478449</v>
+        <v>483.1829765478442</v>
       </c>
       <c r="G23" t="n">
         <v>224.450185346322</v>
@@ -5999,16 +5999,16 @@
         <v>1380.310416942196</v>
       </c>
       <c r="N23" t="n">
-        <v>1848.049121755375</v>
+        <v>1848.049121755376</v>
       </c>
       <c r="O23" t="n">
-        <v>2237.478527880637</v>
+        <v>2237.478527880638</v>
       </c>
       <c r="P23" t="n">
-        <v>2537.690056379756</v>
+        <v>2537.690056379757</v>
       </c>
       <c r="Q23" t="n">
-        <v>2686.232337941855</v>
+        <v>2686.232337941856</v>
       </c>
       <c r="R23" t="n">
         <v>2686.232337941856</v>
@@ -6029,10 +6029,10 @@
         <v>2118.473491775369</v>
       </c>
       <c r="X23" t="n">
-        <v>1893.303301899271</v>
+        <v>1893.30330189927</v>
       </c>
       <c r="Y23" t="n">
-        <v>1656.621397077517</v>
+        <v>1656.621397077516</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6075,7 @@
         <v>836.1232266587785</v>
       </c>
       <c r="M24" t="n">
-        <v>954.5874954469505</v>
+        <v>1389.086145439046</v>
       </c>
       <c r="N24" t="n">
         <v>1535.580600302081</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.78490790112218</v>
+        <v>78.7849079011221</v>
       </c>
       <c r="C25" t="n">
-        <v>66.02888896521037</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="D25" t="n">
-        <v>66.02888896521037</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="E25" t="n">
-        <v>66.02888896521037</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="F25" t="n">
-        <v>66.02888896521037</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="G25" t="n">
-        <v>54.19841772644767</v>
+        <v>54.19841772644764</v>
       </c>
       <c r="H25" t="n">
         <v>53.72464675883712</v>
@@ -6178,19 +6178,19 @@
         <v>645.701910600709</v>
       </c>
       <c r="U25" t="n">
-        <v>478.219852409988</v>
+        <v>515.3841304262702</v>
       </c>
       <c r="V25" t="n">
-        <v>374.3444985708185</v>
+        <v>411.5087765871007</v>
       </c>
       <c r="W25" t="n">
-        <v>245.0480476906255</v>
+        <v>245.0480476906253</v>
       </c>
       <c r="X25" t="n">
-        <v>170.6555341884091</v>
+        <v>170.655534188409</v>
       </c>
       <c r="Y25" t="n">
-        <v>105.4803259830941</v>
+        <v>105.480325983094</v>
       </c>
     </row>
     <row r="26">
@@ -6209,52 +6209,52 @@
         <v>1253.972496416967</v>
       </c>
       <c r="E26" t="n">
-        <v>963.3902703941324</v>
+        <v>963.3902703941321</v>
       </c>
       <c r="F26" t="n">
-        <v>653.4425735753612</v>
+        <v>653.4425735753609</v>
       </c>
       <c r="G26" t="n">
-        <v>342.0533256424895</v>
+        <v>342.0533256424893</v>
       </c>
       <c r="H26" t="n">
         <v>118.6713303236553</v>
       </c>
       <c r="I26" t="n">
-        <v>69.7673883149113</v>
+        <v>69.76738831491133</v>
       </c>
       <c r="J26" t="n">
-        <v>286.4235492996545</v>
+        <v>210.7084716481415</v>
       </c>
       <c r="K26" t="n">
-        <v>692.4318722807504</v>
+        <v>616.7167946292375</v>
       </c>
       <c r="L26" t="n">
-        <v>1221.519847046617</v>
+        <v>1145.804769395104</v>
       </c>
       <c r="M26" t="n">
-        <v>1729.157458218853</v>
+        <v>1729.157458218854</v>
       </c>
       <c r="N26" t="n">
-        <v>2299.026007375057</v>
+        <v>2299.026007375058</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.585257843343</v>
+        <v>2790.585257843344</v>
       </c>
       <c r="P26" t="n">
-        <v>3192.926630685487</v>
+        <v>3192.926630685488</v>
       </c>
       <c r="Q26" t="n">
-        <v>3443.59875659061</v>
+        <v>3443.598756590611</v>
       </c>
       <c r="R26" t="n">
-        <v>3488.369415745565</v>
+        <v>3488.369415745567</v>
       </c>
       <c r="S26" t="n">
-        <v>3416.993923802612</v>
+        <v>3416.993923802613</v>
       </c>
       <c r="T26" t="n">
-        <v>3299.076445262269</v>
+        <v>3299.07644526227</v>
       </c>
       <c r="U26" t="n">
         <v>3148.435502426672</v>
@@ -6288,25 +6288,25 @@
         <v>636.2045419565818</v>
       </c>
       <c r="E27" t="n">
-        <v>489.176532013453</v>
+        <v>489.1765320134531</v>
       </c>
       <c r="F27" t="n">
-        <v>354.4827339633273</v>
+        <v>354.4827339633274</v>
       </c>
       <c r="G27" t="n">
         <v>226.0277740388368</v>
       </c>
       <c r="H27" t="n">
-        <v>128.7317376162324</v>
+        <v>128.7317376162325</v>
       </c>
       <c r="I27" t="n">
-        <v>69.7673883149113</v>
+        <v>69.76738831491133</v>
       </c>
       <c r="J27" t="n">
         <v>155.3507847265348</v>
       </c>
       <c r="K27" t="n">
-        <v>428.1330597126726</v>
+        <v>428.1330597126727</v>
       </c>
       <c r="L27" t="n">
         <v>852.1659682148527</v>
@@ -6361,34 +6361,34 @@
         <v>430.8511689080206</v>
       </c>
       <c r="C28" t="n">
-        <v>365.4386932407593</v>
+        <v>365.4386932407592</v>
       </c>
       <c r="D28" t="n">
         <v>316.5702939395804</v>
       </c>
       <c r="E28" t="n">
-        <v>268.7647735719577</v>
+        <v>268.7647735719576</v>
       </c>
       <c r="F28" t="n">
-        <v>220.4876124687933</v>
+        <v>220.4876124687931</v>
       </c>
       <c r="G28" t="n">
-        <v>156.0006844986812</v>
+        <v>156.0006844986809</v>
       </c>
       <c r="H28" t="n">
-        <v>102.8704567997212</v>
+        <v>102.8704567997213</v>
       </c>
       <c r="I28" t="n">
-        <v>69.7673883149113</v>
+        <v>69.76738831491133</v>
       </c>
       <c r="J28" t="n">
-        <v>128.925890500177</v>
+        <v>128.9258905001773</v>
       </c>
       <c r="K28" t="n">
-        <v>290.7733184113106</v>
+        <v>290.7733184113108</v>
       </c>
       <c r="L28" t="n">
-        <v>526.926398281117</v>
+        <v>526.9263982811171</v>
       </c>
       <c r="M28" t="n">
         <v>782.2824000963458</v>
@@ -6418,16 +6418,16 @@
         <v>1093.568397073634</v>
       </c>
       <c r="V28" t="n">
-        <v>937.0365865031146</v>
+        <v>937.0365865031149</v>
       </c>
       <c r="W28" t="n">
-        <v>755.0836788915722</v>
+        <v>755.0836788915724</v>
       </c>
       <c r="X28" t="n">
-        <v>628.0347086580064</v>
+        <v>628.0347086580066</v>
       </c>
       <c r="Y28" t="n">
-        <v>510.2030437213419</v>
+        <v>510.203043721342</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1800.323232114818</v>
+        <v>1800.32323211482</v>
       </c>
       <c r="C29" t="n">
-        <v>1522.592967318685</v>
+        <v>1522.592967318686</v>
       </c>
       <c r="D29" t="n">
-        <v>1253.972496416967</v>
+        <v>1253.972496416968</v>
       </c>
       <c r="E29" t="n">
-        <v>963.3902703941326</v>
+        <v>963.3902703941334</v>
       </c>
       <c r="F29" t="n">
-        <v>653.4425735753614</v>
+        <v>653.4425735753616</v>
       </c>
       <c r="G29" t="n">
-        <v>342.0533256424897</v>
+        <v>342.0533256424899</v>
       </c>
       <c r="H29" t="n">
         <v>118.6713303236553</v>
       </c>
       <c r="I29" t="n">
-        <v>69.7673883149113</v>
+        <v>69.76738831491134</v>
       </c>
       <c r="J29" t="n">
-        <v>286.4235492996546</v>
+        <v>286.4235492996547</v>
       </c>
       <c r="K29" t="n">
         <v>692.4318722807507</v>
@@ -6470,43 +6470,43 @@
         <v>1221.519847046618</v>
       </c>
       <c r="M29" t="n">
-        <v>1804.872535870367</v>
+        <v>1729.157458218854</v>
       </c>
       <c r="N29" t="n">
-        <v>2374.741085026571</v>
+        <v>2299.026007375059</v>
       </c>
       <c r="O29" t="n">
-        <v>2866.300335494857</v>
+        <v>2790.585257843345</v>
       </c>
       <c r="P29" t="n">
-        <v>3268.641708337001</v>
+        <v>3192.926630685488</v>
       </c>
       <c r="Q29" t="n">
-        <v>3443.598756590609</v>
+        <v>3443.598756590612</v>
       </c>
       <c r="R29" t="n">
-        <v>3488.369415745565</v>
+        <v>3488.369415745567</v>
       </c>
       <c r="S29" t="n">
-        <v>3416.993923802611</v>
+        <v>3416.993923802613</v>
       </c>
       <c r="T29" t="n">
-        <v>3299.076445262268</v>
+        <v>3299.076445262271</v>
       </c>
       <c r="U29" t="n">
-        <v>3148.435502426671</v>
+        <v>3148.435502426674</v>
       </c>
       <c r="V29" t="n">
-        <v>2915.65972219367</v>
+        <v>2915.659722193674</v>
       </c>
       <c r="W29" t="n">
-        <v>2657.32828592233</v>
+        <v>2657.328285922333</v>
       </c>
       <c r="X29" t="n">
-        <v>2379.501639314882</v>
+        <v>2379.501639314885</v>
       </c>
       <c r="Y29" t="n">
-        <v>2090.163277761778</v>
+        <v>2090.163277761781</v>
       </c>
     </row>
     <row r="30">
@@ -6525,31 +6525,31 @@
         <v>636.2045419565818</v>
       </c>
       <c r="E30" t="n">
-        <v>489.176532013453</v>
+        <v>489.1765320134531</v>
       </c>
       <c r="F30" t="n">
-        <v>354.4827339633273</v>
+        <v>354.4827339633274</v>
       </c>
       <c r="G30" t="n">
         <v>226.0277740388368</v>
       </c>
       <c r="H30" t="n">
-        <v>128.7317376162324</v>
+        <v>128.7317376162325</v>
       </c>
       <c r="I30" t="n">
-        <v>69.7673883149113</v>
+        <v>69.76738831491134</v>
       </c>
       <c r="J30" t="n">
-        <v>69.7673883149113</v>
+        <v>155.3507847265348</v>
       </c>
       <c r="K30" t="n">
-        <v>342.5496633010491</v>
+        <v>428.1330597126727</v>
       </c>
       <c r="L30" t="n">
-        <v>766.5825718032293</v>
+        <v>852.1659682148529</v>
       </c>
       <c r="M30" t="n">
-        <v>1319.545490583496</v>
+        <v>1405.12888699512</v>
       </c>
       <c r="N30" t="n">
         <v>1551.623341858155</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>430.8511689080206</v>
+        <v>430.8511689080203</v>
       </c>
       <c r="C31" t="n">
-        <v>365.4386932407593</v>
+        <v>365.4386932407591</v>
       </c>
       <c r="D31" t="n">
-        <v>316.5702939395804</v>
+        <v>316.5702939395802</v>
       </c>
       <c r="E31" t="n">
-        <v>268.7647735719577</v>
+        <v>268.7647735719574</v>
       </c>
       <c r="F31" t="n">
-        <v>220.4876124687933</v>
+        <v>220.487612468793</v>
       </c>
       <c r="G31" t="n">
-        <v>156.0006844986811</v>
+        <v>156.0006844986808</v>
       </c>
       <c r="H31" t="n">
         <v>102.8704567997211</v>
       </c>
       <c r="I31" t="n">
-        <v>69.7673883149113</v>
+        <v>69.76738831491134</v>
       </c>
       <c r="J31" t="n">
-        <v>128.9258905001768</v>
+        <v>128.925890500177</v>
       </c>
       <c r="K31" t="n">
-        <v>290.7733184113104</v>
+        <v>290.7733184113107</v>
       </c>
       <c r="L31" t="n">
-        <v>526.9263982811168</v>
+        <v>526.9263982811171</v>
       </c>
       <c r="M31" t="n">
-        <v>782.2824000963453</v>
+        <v>782.2824000963454</v>
       </c>
       <c r="N31" t="n">
         <v>1037.229483833446</v>
       </c>
       <c r="O31" t="n">
-        <v>1269.592229622336</v>
+        <v>1269.592229622335</v>
       </c>
       <c r="P31" t="n">
         <v>1461.87464361176</v>
@@ -6652,19 +6652,19 @@
         <v>1276.542633979422</v>
       </c>
       <c r="U31" t="n">
-        <v>1093.568397073634</v>
+        <v>1093.568397073633</v>
       </c>
       <c r="V31" t="n">
-        <v>937.0365865031149</v>
+        <v>937.0365865031144</v>
       </c>
       <c r="W31" t="n">
-        <v>755.0836788915724</v>
+        <v>755.0836788915719</v>
       </c>
       <c r="X31" t="n">
-        <v>628.0347086580066</v>
+        <v>628.0347086580061</v>
       </c>
       <c r="Y31" t="n">
-        <v>510.2030437213419</v>
+        <v>510.2030437213417</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1796.631979276007</v>
+        <v>1796.631979276008</v>
       </c>
       <c r="C32" t="n">
-        <v>1519.406941823732</v>
+        <v>1519.406941823733</v>
       </c>
       <c r="D32" t="n">
-        <v>1251.291698265874</v>
+        <v>1251.291698265875</v>
       </c>
       <c r="E32" t="n">
-        <v>961.2146995868991</v>
+        <v>961.2146995868998</v>
       </c>
       <c r="F32" t="n">
-        <v>651.7722301119877</v>
+        <v>651.7722301119884</v>
       </c>
       <c r="G32" t="n">
-        <v>340.8882095229758</v>
+        <v>340.8882095229764</v>
       </c>
       <c r="H32" t="n">
-        <v>118.0114415480017</v>
+        <v>118.0114415480018</v>
       </c>
       <c r="I32" t="n">
-        <v>69.61272688311749</v>
+        <v>69.61272688311755</v>
       </c>
       <c r="J32" t="n">
-        <v>286.7640611875778</v>
+        <v>286.7640611875777</v>
       </c>
       <c r="K32" t="n">
-        <v>693.2675574883907</v>
+        <v>693.2675574883906</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.850705573975</v>
+        <v>1222.850705573974</v>
       </c>
       <c r="M32" t="n">
-        <v>1718.948520030576</v>
+        <v>1718.948520030579</v>
       </c>
       <c r="N32" t="n">
-        <v>2289.312242506498</v>
+        <v>2289.3122425065</v>
       </c>
       <c r="O32" t="n">
-        <v>2781.366666294501</v>
+        <v>2781.366666294503</v>
       </c>
       <c r="P32" t="n">
-        <v>3184.203212456362</v>
+        <v>3184.203212456364</v>
       </c>
       <c r="Q32" t="n">
-        <v>3435.370511681202</v>
+        <v>3435.370511681204</v>
       </c>
       <c r="R32" t="n">
-        <v>3480.636344155875</v>
+        <v>3480.636344155877</v>
       </c>
       <c r="S32" t="n">
-        <v>3409.76607955678</v>
+        <v>3409.766079556783</v>
       </c>
       <c r="T32" t="n">
-        <v>3292.353828360297</v>
+        <v>3292.3538283603</v>
       </c>
       <c r="U32" t="n">
-        <v>3142.218112868561</v>
+        <v>3142.218112868562</v>
       </c>
       <c r="V32" t="n">
-        <v>2909.94755997942</v>
+        <v>2909.947559979422</v>
       </c>
       <c r="W32" t="n">
-        <v>2652.12135105194</v>
+        <v>2652.121351051941</v>
       </c>
       <c r="X32" t="n">
         <v>2374.799931788352</v>
       </c>
       <c r="Y32" t="n">
-        <v>2085.966797579108</v>
+        <v>2085.966797579109</v>
       </c>
     </row>
     <row r="33">
@@ -6762,34 +6762,34 @@
         <v>636.049880524788</v>
       </c>
       <c r="E33" t="n">
-        <v>489.0218705816592</v>
+        <v>489.0218705816593</v>
       </c>
       <c r="F33" t="n">
-        <v>354.3280725315335</v>
+        <v>354.3280725315336</v>
       </c>
       <c r="G33" t="n">
-        <v>225.8731126070429</v>
+        <v>225.873112607043</v>
       </c>
       <c r="H33" t="n">
-        <v>128.5770761844386</v>
+        <v>128.5770761844387</v>
       </c>
       <c r="I33" t="n">
-        <v>69.61272688311749</v>
+        <v>69.61272688311755</v>
       </c>
       <c r="J33" t="n">
-        <v>69.61272688311749</v>
+        <v>69.61272688311755</v>
       </c>
       <c r="K33" t="n">
-        <v>69.61272688311749</v>
+        <v>342.3950018692554</v>
       </c>
       <c r="L33" t="n">
-        <v>493.6456353852976</v>
+        <v>766.4279103714355</v>
       </c>
       <c r="M33" t="n">
-        <v>1046.608554165565</v>
+        <v>1319.390829151703</v>
       </c>
       <c r="N33" t="n">
-        <v>1627.601659020695</v>
+        <v>1551.468680426362</v>
       </c>
       <c r="O33" t="n">
         <v>2007.455633585515</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>427.1599160692084</v>
+        <v>427.1599160692089</v>
       </c>
       <c r="C34" t="n">
-        <v>362.2526677458069</v>
+        <v>362.2526677458073</v>
       </c>
       <c r="D34" t="n">
-        <v>313.8894957884878</v>
+        <v>313.8894957884882</v>
       </c>
       <c r="E34" t="n">
-        <v>266.5892027647249</v>
+        <v>266.5892027647252</v>
       </c>
       <c r="F34" t="n">
-        <v>218.8172690054202</v>
+        <v>218.8172690054205</v>
       </c>
       <c r="G34" t="n">
-        <v>154.8355683791678</v>
+        <v>154.835568379168</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2105680240676</v>
+        <v>102.2105680240677</v>
       </c>
       <c r="I34" t="n">
-        <v>69.61272688311749</v>
+        <v>69.61272688311755</v>
       </c>
       <c r="J34" t="n">
-        <v>129.2664023881003</v>
+        <v>129.2664023881002</v>
       </c>
       <c r="K34" t="n">
-        <v>279.5639795594582</v>
+        <v>291.6090036189507</v>
       </c>
       <c r="L34" t="n">
-        <v>516.2122327489817</v>
+        <v>528.257256808474</v>
       </c>
       <c r="M34" t="n">
-        <v>772.0634078839273</v>
+        <v>784.1084319434195</v>
       </c>
       <c r="N34" t="n">
-        <v>1027.505664940745</v>
+        <v>1039.550689000237</v>
       </c>
       <c r="O34" t="n">
-        <v>1260.363584049351</v>
+        <v>1260.363584049353</v>
       </c>
       <c r="P34" t="n">
-        <v>1453.141171358493</v>
+        <v>1453.141171358494</v>
       </c>
       <c r="Q34" t="n">
-        <v>1536.816592796662</v>
+        <v>1536.816592796663</v>
       </c>
       <c r="R34" t="n">
-        <v>1502.314899063995</v>
+        <v>1502.314899063997</v>
       </c>
       <c r="S34" t="n">
-        <v>1397.310398212669</v>
+        <v>1397.31039821267</v>
       </c>
       <c r="T34" t="n">
-        <v>1269.820017077451</v>
+        <v>1269.820017077452</v>
       </c>
       <c r="U34" t="n">
-        <v>1087.351007515522</v>
+        <v>1087.351007515524</v>
       </c>
       <c r="V34" t="n">
-        <v>931.3244242888634</v>
+        <v>931.3244242888643</v>
       </c>
       <c r="W34" t="n">
-        <v>749.8767440211807</v>
+        <v>749.8767440211815</v>
       </c>
       <c r="X34" t="n">
-        <v>623.3330011314747</v>
+        <v>623.3330011314754</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.00656353867</v>
+        <v>506.0065635386706</v>
       </c>
     </row>
     <row r="35">
@@ -6968,7 +6968,7 @@
         <v>2602.252280921258</v>
       </c>
       <c r="U35" t="n">
-        <v>2504.267794817011</v>
+        <v>2504.26779481701</v>
       </c>
       <c r="V35" t="n">
         <v>2324.14847131536</v>
@@ -7014,25 +7014,25 @@
         <v>53.72464675883711</v>
       </c>
       <c r="J36" t="n">
-        <v>53.72464675883711</v>
+        <v>139.3080431704606</v>
       </c>
       <c r="K36" t="n">
-        <v>53.72464675883711</v>
+        <v>412.0903181565984</v>
       </c>
       <c r="L36" t="n">
-        <v>477.7575552610172</v>
+        <v>836.1232266587785</v>
       </c>
       <c r="M36" t="n">
-        <v>1030.720474041284</v>
+        <v>1389.086145439046</v>
       </c>
       <c r="N36" t="n">
-        <v>1611.713578896415</v>
+        <v>1970.079250294176</v>
       </c>
       <c r="O36" t="n">
-        <v>2067.700532055568</v>
+        <v>2426.06620345333</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.858165704337</v>
+        <v>2536.852091969407</v>
       </c>
       <c r="Q36" t="n">
         <v>2536.852091969407</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>115.9491859174046</v>
+        <v>78.7849079011221</v>
       </c>
       <c r="C37" t="n">
         <v>66.02888896521031</v>
@@ -7138,7 +7138,7 @@
         <v>207.8198122046915</v>
       </c>
       <c r="Y37" t="n">
-        <v>142.6446039993765</v>
+        <v>105.480325983094</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>1194.36400009712</v>
       </c>
       <c r="D38" t="n">
-        <v>978.3999859267512</v>
+        <v>978.3999859267515</v>
       </c>
       <c r="E38" t="n">
-        <v>740.474216635266</v>
+        <v>740.4742166352662</v>
       </c>
       <c r="F38" t="n">
-        <v>483.1829765478442</v>
+        <v>483.1829765478446</v>
       </c>
       <c r="G38" t="n">
         <v>224.450185346322</v>
       </c>
       <c r="H38" t="n">
-        <v>53.72464675883705</v>
+        <v>53.72464675883711</v>
       </c>
       <c r="I38" t="n">
         <v>53.72464675883711</v>
@@ -7205,7 +7205,7 @@
         <v>2602.252280921258</v>
       </c>
       <c r="U38" t="n">
-        <v>2504.26779481701</v>
+        <v>2504.267794817011</v>
       </c>
       <c r="V38" t="n">
         <v>2324.14847131536</v>
@@ -7251,22 +7251,22 @@
         <v>53.72464675883711</v>
       </c>
       <c r="J39" t="n">
-        <v>53.72464675883711</v>
+        <v>139.3080431704606</v>
       </c>
       <c r="K39" t="n">
-        <v>53.72464675883711</v>
+        <v>412.0903181565984</v>
       </c>
       <c r="L39" t="n">
-        <v>477.7575552610172</v>
+        <v>836.1232266587785</v>
       </c>
       <c r="M39" t="n">
-        <v>1030.720474041284</v>
+        <v>1389.086145439046</v>
       </c>
       <c r="N39" t="n">
-        <v>1611.713578896415</v>
+        <v>1970.079250294176</v>
       </c>
       <c r="O39" t="n">
-        <v>2067.700532055568</v>
+        <v>1991.567553461234</v>
       </c>
       <c r="P39" t="n">
         <v>2344.858165704337</v>
@@ -7360,16 +7360,16 @@
         <v>701.7067125631378</v>
       </c>
       <c r="T40" t="n">
-        <v>626.3675608154092</v>
+        <v>608.5376325844265</v>
       </c>
       <c r="U40" t="n">
-        <v>496.0497806409704</v>
+        <v>478.2198524099877</v>
       </c>
       <c r="V40" t="n">
-        <v>392.174426801801</v>
+        <v>374.3444985708182</v>
       </c>
       <c r="W40" t="n">
-        <v>262.877975921608</v>
+        <v>245.0480476906253</v>
       </c>
       <c r="X40" t="n">
         <v>170.655534188409</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1367.699214310408</v>
+        <v>1154.457331186876</v>
       </c>
       <c r="C41" t="n">
-        <v>1359.976798206512</v>
+        <v>896.2609635002132</v>
       </c>
       <c r="D41" t="n">
-        <v>1110.890224414265</v>
+        <v>647.1743897079662</v>
       </c>
       <c r="E41" t="n">
-        <v>839.8418955009013</v>
+        <v>376.1260607946025</v>
       </c>
       <c r="F41" t="n">
-        <v>549.4280957916011</v>
+        <v>257.5727449682005</v>
       </c>
       <c r="G41" t="n">
         <v>257.5727449682005</v>
       </c>
       <c r="H41" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883711</v>
       </c>
       <c r="I41" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883711</v>
       </c>
       <c r="J41" t="n">
-        <v>168.2509634005561</v>
+        <v>168.250963400556</v>
       </c>
       <c r="K41" t="n">
         <v>472.1294420386276</v>
       </c>
       <c r="L41" t="n">
-        <v>899.0875724614702</v>
+        <v>899.0875724614701</v>
       </c>
       <c r="M41" t="n">
-        <v>1380.310416942196</v>
+        <v>1380.310416942195</v>
       </c>
       <c r="N41" t="n">
-        <v>1848.049121755377</v>
+        <v>1848.049121755375</v>
       </c>
       <c r="O41" t="n">
-        <v>2237.478527880638</v>
+        <v>2237.478527880637</v>
       </c>
       <c r="P41" t="n">
-        <v>2537.690056379758</v>
+        <v>2537.690056379756</v>
       </c>
       <c r="Q41" t="n">
-        <v>2686.232337941857</v>
+        <v>2686.232337941855</v>
       </c>
       <c r="R41" t="n">
-        <v>2686.232337941857</v>
+        <v>2686.232337941855</v>
       </c>
       <c r="S41" t="n">
-        <v>2634.390743108374</v>
+        <v>2634.390743108372</v>
       </c>
       <c r="T41" t="n">
-        <v>2536.007161677503</v>
+        <v>2536.007161677501</v>
       </c>
       <c r="U41" t="n">
-        <v>2404.900115951377</v>
+        <v>2404.900115951375</v>
       </c>
       <c r="V41" t="n">
-        <v>2404.900115951377</v>
+        <v>2191.658232827845</v>
       </c>
       <c r="W41" t="n">
-        <v>2166.102576789508</v>
+        <v>1952.860693665976</v>
       </c>
       <c r="X41" t="n">
-        <v>1907.809827291531</v>
+        <v>1694.567944167999</v>
       </c>
       <c r="Y41" t="n">
-        <v>1638.005362847898</v>
+        <v>1424.763479724366</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>209.9850324827626</v>
       </c>
       <c r="H42" t="n">
-        <v>112.6889960601583</v>
+        <v>112.6889960601582</v>
       </c>
       <c r="I42" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883711</v>
       </c>
       <c r="J42" t="n">
         <v>139.3080431704606</v>
@@ -7494,16 +7494,16 @@
         <v>412.0903181565984</v>
       </c>
       <c r="L42" t="n">
-        <v>412.0903181565984</v>
+        <v>836.1232266587784</v>
       </c>
       <c r="M42" t="n">
-        <v>965.0532369368655</v>
+        <v>1389.086145439045</v>
       </c>
       <c r="N42" t="n">
-        <v>1546.046341791996</v>
+        <v>1970.079250294176</v>
       </c>
       <c r="O42" t="n">
-        <v>2002.033294951149</v>
+        <v>1991.567553461234</v>
       </c>
       <c r="P42" t="n">
         <v>2344.858165704337</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>278.0711475856492</v>
+        <v>278.0711475856496</v>
       </c>
       <c r="C43" t="n">
-        <v>232.192569027859</v>
+        <v>232.1925690278593</v>
       </c>
       <c r="D43" t="n">
-        <v>202.8580668361512</v>
+        <v>202.8580668361514</v>
       </c>
       <c r="E43" t="n">
-        <v>174.5864435779995</v>
+        <v>174.5864435779997</v>
       </c>
       <c r="F43" t="n">
-        <v>145.8431795843061</v>
+        <v>145.8431795843062</v>
       </c>
       <c r="G43" t="n">
         <v>100.890148723665</v>
       </c>
       <c r="H43" t="n">
-        <v>67.29381813417601</v>
+        <v>67.29381813417602</v>
       </c>
       <c r="I43" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883711</v>
       </c>
       <c r="J43" t="n">
-        <v>132.0283215010955</v>
+        <v>53.72464675883711</v>
       </c>
       <c r="K43" t="n">
-        <v>191.7459050692046</v>
+        <v>113.4422303269463</v>
       </c>
       <c r="L43" t="n">
-        <v>447.0441574960037</v>
+        <v>247.4654658537283</v>
       </c>
       <c r="M43" t="n">
-        <v>721.5453318682248</v>
+        <v>521.9666402259495</v>
       </c>
       <c r="N43" t="n">
-        <v>874.3625712623009</v>
+        <v>772.4838877548751</v>
       </c>
       <c r="O43" t="n">
-        <v>1004.595472708166</v>
+        <v>902.7167892007405</v>
       </c>
       <c r="P43" t="n">
-        <v>1216.023059254583</v>
+        <v>1114.144375747157</v>
       </c>
       <c r="Q43" t="n">
-        <v>1216.469796422601</v>
+        <v>1216.469796422602</v>
       </c>
       <c r="R43" t="n">
-        <v>1200.996772455546</v>
+        <v>1200.996772455547</v>
       </c>
       <c r="S43" t="n">
-        <v>1115.020941369831</v>
+        <v>1115.020941369832</v>
       </c>
       <c r="T43" t="n">
-        <v>1006.559230000224</v>
+        <v>1006.559230000225</v>
       </c>
       <c r="U43" t="n">
-        <v>843.1188902039071</v>
+        <v>843.1188902039077</v>
       </c>
       <c r="V43" t="n">
-        <v>706.1209767428592</v>
+        <v>706.1209767428597</v>
       </c>
       <c r="W43" t="n">
-        <v>543.7019662407878</v>
+        <v>543.7019662407882</v>
       </c>
       <c r="X43" t="n">
-        <v>436.186893116693</v>
+        <v>436.1868931166934</v>
       </c>
       <c r="Y43" t="n">
-        <v>337.8891252894996</v>
+        <v>337.8891252894999</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1647.543210792448</v>
+        <v>1154.457331186877</v>
       </c>
       <c r="C44" t="n">
-        <v>1389.346843105785</v>
+        <v>896.2609635002136</v>
       </c>
       <c r="D44" t="n">
-        <v>1140.260269313538</v>
+        <v>647.1743897079666</v>
       </c>
       <c r="E44" t="n">
-        <v>869.2119404001743</v>
+        <v>547.9865446775008</v>
       </c>
       <c r="F44" t="n">
-        <v>578.7981406908741</v>
+        <v>257.5727449682005</v>
       </c>
       <c r="G44" t="n">
-        <v>286.9427898674734</v>
+        <v>257.5727449682005</v>
       </c>
       <c r="H44" t="n">
-        <v>83.09469165811005</v>
+        <v>53.72464675883711</v>
       </c>
       <c r="I44" t="n">
         <v>53.72464675883711</v>
@@ -7658,7 +7658,7 @@
         <v>1380.310416942195</v>
       </c>
       <c r="N44" t="n">
-        <v>1848.049121755375</v>
+        <v>1848.049121755376</v>
       </c>
       <c r="O44" t="n">
         <v>2237.478527880637</v>
@@ -7676,22 +7676,22 @@
         <v>2634.390743108372</v>
       </c>
       <c r="T44" t="n">
-        <v>2546.046693715909</v>
+        <v>2536.007161677501</v>
       </c>
       <c r="U44" t="n">
-        <v>2414.939647989784</v>
+        <v>2404.900115951375</v>
       </c>
       <c r="V44" t="n">
-        <v>2414.939647989784</v>
+        <v>2191.658232827846</v>
       </c>
       <c r="W44" t="n">
-        <v>2176.142108827915</v>
+        <v>1952.860693665976</v>
       </c>
       <c r="X44" t="n">
-        <v>1917.849359329938</v>
+        <v>1694.567944167999</v>
       </c>
       <c r="Y44" t="n">
-        <v>1917.849359329938</v>
+        <v>1424.763479724366</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>53.72464675883711</v>
       </c>
       <c r="J45" t="n">
-        <v>139.3080431704606</v>
+        <v>128.8423016805457</v>
       </c>
       <c r="K45" t="n">
-        <v>330.8822804076061</v>
+        <v>401.6245766666835</v>
       </c>
       <c r="L45" t="n">
-        <v>754.9151889097861</v>
+        <v>401.6245766666835</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.878107690053</v>
+        <v>954.5874954469505</v>
       </c>
       <c r="N45" t="n">
-        <v>1888.871212545184</v>
+        <v>1535.580600302081</v>
       </c>
       <c r="O45" t="n">
-        <v>2344.858165704337</v>
+        <v>1991.567553461234</v>
       </c>
       <c r="P45" t="n">
         <v>2344.858165704337</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>278.0711475856492</v>
+        <v>278.0711475856496</v>
       </c>
       <c r="C46" t="n">
-        <v>232.192569027859</v>
+        <v>232.1925690278593</v>
       </c>
       <c r="D46" t="n">
-        <v>202.8580668361512</v>
+        <v>202.8580668361514</v>
       </c>
       <c r="E46" t="n">
-        <v>174.5864435779995</v>
+        <v>174.5864435779997</v>
       </c>
       <c r="F46" t="n">
-        <v>145.8431795843061</v>
+        <v>145.8431795843062</v>
       </c>
       <c r="G46" t="n">
         <v>100.890148723665</v>
       </c>
       <c r="H46" t="n">
-        <v>67.29381813417598</v>
+        <v>67.29381813417602</v>
       </c>
       <c r="I46" t="n">
         <v>53.72464675883711</v>
@@ -7807,16 +7807,16 @@
         <v>53.72464675883711</v>
       </c>
       <c r="K46" t="n">
-        <v>113.4422303269463</v>
+        <v>234.7172472269631</v>
       </c>
       <c r="L46" t="n">
-        <v>247.4654658537284</v>
+        <v>466.4404908885949</v>
       </c>
       <c r="M46" t="n">
-        <v>521.9666402259495</v>
+        <v>740.941665260816</v>
       </c>
       <c r="N46" t="n">
-        <v>772.4838877548744</v>
+        <v>893.758904654892</v>
       </c>
       <c r="O46" t="n">
         <v>1023.991806100757</v>
@@ -7825,31 +7825,31 @@
         <v>1114.144375747157</v>
       </c>
       <c r="Q46" t="n">
-        <v>1216.469796422601</v>
+        <v>1216.469796422602</v>
       </c>
       <c r="R46" t="n">
-        <v>1200.996772455546</v>
+        <v>1200.996772455547</v>
       </c>
       <c r="S46" t="n">
-        <v>1115.020941369831</v>
+        <v>1115.020941369832</v>
       </c>
       <c r="T46" t="n">
-        <v>1006.559230000224</v>
+        <v>1006.559230000225</v>
       </c>
       <c r="U46" t="n">
-        <v>843.1188902039071</v>
+        <v>843.1188902039077</v>
       </c>
       <c r="V46" t="n">
-        <v>706.1209767428592</v>
+        <v>706.1209767428597</v>
       </c>
       <c r="W46" t="n">
-        <v>543.7019662407878</v>
+        <v>543.7019662407882</v>
       </c>
       <c r="X46" t="n">
-        <v>436.186893116693</v>
+        <v>436.1868931166934</v>
       </c>
       <c r="Y46" t="n">
-        <v>337.8891252894996</v>
+        <v>337.8891252894999</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>157.109476210864</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>178.8230039740467</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L2" t="n">
         <v>191.5602121631146</v>
@@ -7988,16 +7988,16 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>196.4077929551615</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
-        <v>186.9547967801205</v>
+        <v>196.9644755630518</v>
       </c>
       <c r="P2" t="n">
-        <v>197.8864878340879</v>
+        <v>197.4820563681108</v>
       </c>
       <c r="Q2" t="n">
-        <v>190.2286203399446</v>
+        <v>190.6330518059216</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8058,16 +8058,16 @@
         <v>113.0652504495981</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>122.005847949598</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1806808881021</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>125.4935813445713</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>116.3203883846626</v>
       </c>
       <c r="O3" t="n">
         <v>115.8594486111111</v>
@@ -8137,22 +8137,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
-        <v>104.82327226356</v>
+        <v>114.8329510464913</v>
       </c>
       <c r="L4" t="n">
-        <v>119.6034782614375</v>
+        <v>119.1990467954604</v>
       </c>
       <c r="M4" t="n">
-        <v>122.8868782403605</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N4" t="n">
-        <v>113.3497521949563</v>
+        <v>113.7541836609333</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4959374921223</v>
+        <v>122.5056162750536</v>
       </c>
       <c r="P4" t="n">
-        <v>121.9136820728638</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>156.705044744887</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
         <v>188.8326827569781</v>
@@ -8225,16 +8225,16 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
-        <v>186.3981141722301</v>
+        <v>196.0033614891845</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>196.9644755630518</v>
       </c>
       <c r="P5" t="n">
         <v>197.8864878340879</v>
       </c>
       <c r="Q5" t="n">
-        <v>190.6330518059216</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,16 +8292,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>113.0652504495981</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>122.005847949598</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>125.4935813445713</v>
       </c>
       <c r="N6" t="n">
         <v>106.7151410677083</v>
@@ -8310,10 +8310,10 @@
         <v>125.8691273940425</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>118.4594533410977</v>
       </c>
       <c r="Q6" t="n">
-        <v>123.3404387618468</v>
+        <v>123.7448702278239</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8374,10 +8374,10 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>104.82327226356</v>
+        <v>114.8329510464913</v>
       </c>
       <c r="L7" t="n">
-        <v>119.1990467954604</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M7" t="n">
         <v>122.8868782403605</v>
@@ -8386,7 +8386,7 @@
         <v>113.7541836609333</v>
       </c>
       <c r="O7" t="n">
-        <v>122.5056162750536</v>
+        <v>122.1011848090766</v>
       </c>
       <c r="P7" t="n">
         <v>111.9040032899324</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>158.5602008080702</v>
+        <v>159.0427441082865</v>
       </c>
       <c r="K8" t="n">
         <v>190.7659506544006</v>
@@ -8462,13 +8462,13 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>198.341060852584</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>198.8977434604743</v>
       </c>
       <c r="P8" t="n">
-        <v>199.8197557315104</v>
+        <v>199.3372124312941</v>
       </c>
       <c r="Q8" t="n">
         <v>180.6233730229902</v>
@@ -8535,22 +8535,22 @@
         <v>123.9391158470206</v>
       </c>
       <c r="L9" t="n">
-        <v>124.5183802515017</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>126.9443059417775</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>118.6580877480622</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>127.802395291465</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>120.3146094042809</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.6781381252464</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8611,19 +8611,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>116.7662189439139</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
-        <v>109.5937994785061</v>
+        <v>121.53674615886</v>
       </c>
       <c r="M10" t="n">
-        <v>124.820146137783</v>
+        <v>124.3376028375667</v>
       </c>
       <c r="N10" t="n">
-        <v>115.2049082581395</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
-        <v>112.4959374921223</v>
+        <v>124.4388841724762</v>
       </c>
       <c r="P10" t="n">
         <v>123.8469499702863</v>
@@ -8769,13 +8769,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>261.776487157774</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>166.5290576304604</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -8784,7 +8784,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>57.14239494595572</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -9003,16 +9003,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>77.47047077927547</v>
       </c>
       <c r="K15" t="n">
-        <v>68.26715661520282</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>252.9769327937154</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9021,7 +9021,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>250.651725488527</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9173,13 +9173,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355797</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229277</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406825</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578766</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9486,13 +9486,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>166.5290576304594</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>73.13348981520771</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9647,7 +9647,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N23" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355797</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
@@ -9723,10 +9723,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>166.5290576304594</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>184.257561402079</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>184.257561402079</v>
+        <v>184.2575614020787</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>77.47047077927547</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>270.7054365653347</v>
+        <v>184.2575614020782</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10428,7 +10428,7 @@
         <v>77.47047077927547</v>
       </c>
       <c r="K33" t="n">
-        <v>68.26715661520282</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,10 +10437,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>270.7054365653349</v>
       </c>
       <c r="O33" t="n">
-        <v>435.1190164796132</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>77.47047077927547</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>68.26715661520282</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>337.0996006517832</v>
+        <v>169.0473328409827</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>79.1672152029987</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>77.47047077927547</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>68.26715661520282</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10914,10 +10914,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>73.13348981520771</v>
       </c>
       <c r="P39" t="n">
-        <v>337.0996006517832</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11069,7 +11069,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
-        <v>568.5510017355806</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
         <v>495.0402356415689</v>
@@ -11142,7 +11142,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>53.77637970037565</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11151,10 +11151,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>73.13348981520798</v>
       </c>
       <c r="P42" t="n">
-        <v>403.4301431814991</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11306,7 +11306,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355797</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11373,13 +11373,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>153.3468898921124</v>
       </c>
       <c r="K45" t="n">
-        <v>261.776487157774</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>53.77637970037569</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11391,7 +11391,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>57.14239494595572</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>274.9529621481728</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>248.8098620659717</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.2753554535429</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.148175365646</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>230.4480224306702</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>272.8324083063179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>152.2025622036451</v>
+        <v>274.9529621481728</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>179.8171480069573</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>221.148175365646</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>48.4149025886565</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>149.134533407241</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>255.7481219086271</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>275.0483801413737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
     </row>
     <row r="18">
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>247.9692120669391</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>170.1418790440686</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>288.9367973151667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.0763444502802</v>
+        <v>29.07634445028027</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>211.1094642922939</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>170.1418790440691</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>288.9367973151667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.07634445028026</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25916,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>9.939136718024564</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>211.1094642922939</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>267.1064197991961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>681475.1590266494</v>
+        <v>681475.1590266493</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>699370.093799996</v>
+        <v>699370.0937999958</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>748283.4180603086</v>
+        <v>748283.4180603083</v>
       </c>
       <c r="C2" t="n">
-        <v>748283.4180603087</v>
+        <v>748283.4180603084</v>
       </c>
       <c r="D2" t="n">
+        <v>748433.4589818274</v>
+      </c>
+      <c r="E2" t="n">
+        <v>688034.7653600086</v>
+      </c>
+      <c r="F2" t="n">
+        <v>688034.7653600082</v>
+      </c>
+      <c r="G2" t="n">
+        <v>748433.4589818277</v>
+      </c>
+      <c r="H2" t="n">
+        <v>748433.4589818275</v>
+      </c>
+      <c r="I2" t="n">
         <v>748433.4589818276</v>
       </c>
-      <c r="E2" t="n">
-        <v>688034.7653600085</v>
-      </c>
-      <c r="F2" t="n">
-        <v>688034.7653600087</v>
-      </c>
-      <c r="G2" t="n">
-        <v>748433.4589818278</v>
-      </c>
-      <c r="H2" t="n">
-        <v>748433.4589818278</v>
-      </c>
-      <c r="I2" t="n">
-        <v>748433.4589818277</v>
-      </c>
       <c r="J2" t="n">
+        <v>748433.458981825</v>
+      </c>
+      <c r="K2" t="n">
         <v>748433.4589818252</v>
       </c>
-      <c r="K2" t="n">
-        <v>748433.458981825</v>
-      </c>
       <c r="L2" t="n">
-        <v>748433.4589818263</v>
+        <v>748433.4589818266</v>
       </c>
       <c r="M2" t="n">
-        <v>748433.4589818274</v>
+        <v>748433.4589818276</v>
       </c>
       <c r="N2" t="n">
-        <v>748433.4589818273</v>
+        <v>748433.4589818275</v>
       </c>
       <c r="O2" t="n">
-        <v>710547.747816802</v>
+        <v>710547.7478168005</v>
       </c>
       <c r="P2" t="n">
-        <v>710547.7478168022</v>
+        <v>710547.7478168005</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>600.5310069763588</v>
       </c>
       <c r="E3" t="n">
-        <v>380624.5014488702</v>
+        <v>380624.5014488705</v>
       </c>
       <c r="F3" t="n">
-        <v>2.695895773285884e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41703.91373122873</v>
+        <v>41703.91373122877</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95912.81420634929</v>
+        <v>95912.81420634931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>42104.0537875657</v>
+        <v>42104.05378756568</v>
       </c>
       <c r="M3" t="n">
         <v>156190.3404853368</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14592.18619412181</v>
+        <v>14592.18619412172</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>387412.7835192766</v>
+        <v>387412.7835192765</v>
       </c>
       <c r="C4" t="n">
         <v>387412.7835192766</v>
       </c>
       <c r="D4" t="n">
-        <v>387212.3726853603</v>
+        <v>387212.3726853604</v>
       </c>
       <c r="E4" t="n">
         <v>241958.3826807018</v>
@@ -26430,10 +26430,10 @@
         <v>241958.3826807018</v>
       </c>
       <c r="G4" t="n">
-        <v>277080.5245673846</v>
+        <v>277080.5245673847</v>
       </c>
       <c r="H4" t="n">
-        <v>277080.5245673846</v>
+        <v>277080.5245673847</v>
       </c>
       <c r="I4" t="n">
         <v>277080.5245673846</v>
@@ -26442,19 +26442,19 @@
         <v>278128.6151971074</v>
       </c>
       <c r="K4" t="n">
-        <v>278128.6151971074</v>
+        <v>278128.6151971075</v>
       </c>
       <c r="L4" t="n">
         <v>278118.2604137497</v>
       </c>
       <c r="M4" t="n">
-        <v>277080.5245673847</v>
+        <v>277080.5245673846</v>
       </c>
       <c r="N4" t="n">
         <v>277080.5245673846</v>
       </c>
       <c r="O4" t="n">
-        <v>255040.1062369515</v>
+        <v>255040.1062369514</v>
       </c>
       <c r="P4" t="n">
         <v>255040.1062369515</v>
@@ -26476,28 +26476,28 @@
         <v>34353.73115816552</v>
       </c>
       <c r="E5" t="n">
-        <v>52248.04112749935</v>
+        <v>52248.04112749937</v>
       </c>
       <c r="F5" t="n">
-        <v>52248.04112749938</v>
+        <v>52248.04112749937</v>
       </c>
       <c r="G5" t="n">
-        <v>56630.54903183772</v>
+        <v>56630.54903183773</v>
       </c>
       <c r="H5" t="n">
-        <v>56630.54903183772</v>
+        <v>56630.54903183773</v>
       </c>
       <c r="I5" t="n">
-        <v>56630.54903183772</v>
+        <v>56630.54903183773</v>
       </c>
       <c r="J5" t="n">
-        <v>64440.52471011576</v>
+        <v>64440.52471011577</v>
       </c>
       <c r="K5" t="n">
-        <v>64440.52471011576</v>
+        <v>64440.52471011579</v>
       </c>
       <c r="L5" t="n">
-        <v>64365.03123994771</v>
+        <v>64365.03123994773</v>
       </c>
       <c r="M5" t="n">
         <v>56630.54903183771</v>
@@ -26506,10 +26506,10 @@
         <v>56630.54903183771</v>
       </c>
       <c r="O5" t="n">
-        <v>53873.81437163455</v>
+        <v>53873.81437163452</v>
       </c>
       <c r="P5" t="n">
-        <v>53873.81437163454</v>
+        <v>53873.81437163452</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>323279.9724882575</v>
+        <v>323279.5877679457</v>
       </c>
       <c r="C6" t="n">
-        <v>326634.4460710299</v>
+        <v>326634.0613507181</v>
       </c>
       <c r="D6" t="n">
-        <v>326266.8241313254</v>
+        <v>326266.8241313251</v>
       </c>
       <c r="E6" t="n">
-        <v>13203.84010293709</v>
+        <v>13048.97165775269</v>
       </c>
       <c r="F6" t="n">
-        <v>393828.3415518073</v>
+        <v>393673.4731066229</v>
       </c>
       <c r="G6" t="n">
-        <v>373018.4716513767</v>
+        <v>373018.4716513765</v>
       </c>
       <c r="H6" t="n">
-        <v>414722.3853826055</v>
+        <v>414722.385382605</v>
       </c>
       <c r="I6" t="n">
-        <v>414722.3853826054</v>
+        <v>414722.3853826053</v>
       </c>
       <c r="J6" t="n">
-        <v>309951.5048682527</v>
+        <v>309951.5048682526</v>
       </c>
       <c r="K6" t="n">
         <v>405864.3190746019</v>
       </c>
       <c r="L6" t="n">
-        <v>363846.1135405633</v>
+        <v>363846.1135405634</v>
       </c>
       <c r="M6" t="n">
-        <v>258532.0448972682</v>
+        <v>258532.0448972685</v>
       </c>
       <c r="N6" t="n">
-        <v>414722.3853826049</v>
+        <v>414722.3853826051</v>
       </c>
       <c r="O6" t="n">
-        <v>387041.6410140941</v>
+        <v>386944.4981649517</v>
       </c>
       <c r="P6" t="n">
-        <v>401633.8272082162</v>
+        <v>401536.6843590735</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>155.2913510963838</v>
       </c>
       <c r="J2" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="K2" t="n">
         <v>103.1614589323478</v>
@@ -26722,10 +26722,10 @@
         <v>155.2913510963838</v>
       </c>
       <c r="O2" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="P2" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>125.9004082476887</v>
+        <v>125.900408247689</v>
       </c>
       <c r="F3" t="n">
         <v>125.900408247689</v>
@@ -26759,10 +26759,10 @@
         <v>125.900408247689</v>
       </c>
       <c r="J3" t="n">
-        <v>125.9004082476889</v>
+        <v>125.900408247689</v>
       </c>
       <c r="K3" t="n">
-        <v>125.900408247689</v>
+        <v>125.9004082476892</v>
       </c>
       <c r="L3" t="n">
         <v>125.900408247689</v>
@@ -26774,10 +26774,10 @@
         <v>125.900408247689</v>
       </c>
       <c r="O3" t="n">
-        <v>125.900408247689</v>
+        <v>125.9004082476889</v>
       </c>
       <c r="P3" t="n">
-        <v>125.900408247689</v>
+        <v>125.9004082476889</v>
       </c>
     </row>
     <row r="4">
@@ -26796,10 +26796,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="E4" t="n">
-        <v>671.5580844854636</v>
+        <v>671.5580844854638</v>
       </c>
       <c r="F4" t="n">
-        <v>671.558084485464</v>
+        <v>671.5580844854638</v>
       </c>
       <c r="G4" t="n">
         <v>671.558084485464</v>
@@ -26811,13 +26811,13 @@
         <v>671.558084485464</v>
       </c>
       <c r="J4" t="n">
-        <v>872.0923539363913</v>
+        <v>872.0923539363916</v>
       </c>
       <c r="K4" t="n">
-        <v>872.0923539363912</v>
+        <v>872.0923539363918</v>
       </c>
       <c r="L4" t="n">
-        <v>870.1590860389687</v>
+        <v>870.1590860389692</v>
       </c>
       <c r="M4" t="n">
         <v>671.5580844854638</v>
@@ -26826,7 +26826,7 @@
         <v>671.5580844854638</v>
       </c>
       <c r="O4" t="n">
-        <v>671.5580844854642</v>
+        <v>671.5580844854638</v>
       </c>
       <c r="P4" t="n">
         <v>671.5580844854638</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.12989216403592</v>
+        <v>52.12989216403597</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51.03156676831193</v>
+        <v>51.03156676831186</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.63006723445712</v>
+        <v>52.6300672344571</v>
       </c>
       <c r="M2" t="n">
-        <v>51.6297170936148</v>
+        <v>51.62971709361487</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.24023274265227</v>
+        <v>18.24023274265215</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>125.9004082476887</v>
+        <v>125.900408247689</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>1.933267897422525</v>
       </c>
       <c r="E4" t="n">
-        <v>659.6151378051097</v>
+        <v>659.61513780511</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>210.5439482338587</v>
+        <v>210.5439482338591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>461.0141362516049</v>
+        <v>461.0141362516046</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.12989216403592</v>
+        <v>52.12989216403597</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.03156676831193</v>
+        <v>51.03156676831186</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>1.933267897422525</v>
       </c>
       <c r="M4" t="n">
-        <v>659.6151378051097</v>
+        <v>659.61513780511</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>79.72222485617382</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5401605439436</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
@@ -27439,7 +27439,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>350.093055768969</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.8155695705169</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>150.0769572485235</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>136.7412047716915</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -27506,16 +27506,16 @@
         <v>49.17674743307231</v>
       </c>
       <c r="S3" t="n">
-        <v>141.2618133344558</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>207.493319405667</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>216.101987543218</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -27540,13 +27540,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>141.5314954575835</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>141.6723990242884</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>140.9461696415493</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -27558,7 +27558,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>49.44698741703764</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>28.14228914991649</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27588,19 +27588,19 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>222.030638580472</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>248.1182726142302</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>218.9302606806466</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27622,7 +27622,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>380.8281839120228</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,13 +27664,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5401605439436</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>213.298831734293</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>242.3268041402145</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -27701,7 +27701,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>136.7412047716915</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>49.17674743307231</v>
       </c>
       <c r="S6" t="n">
-        <v>141.2618133344558</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>176.7885740127433</v>
       </c>
       <c r="U6" t="n">
-        <v>206.3001656947416</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>217.2951412541434</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>228.8930312960917</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>185.928139458052</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -27780,16 +27780,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>141.6723990242884</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>140.9461696415493</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>157.2208723628971</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>147.7692399855875</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27819,22 +27819,22 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>138.0168847888342</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>220.8374848695466</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>275.5018120437852</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>273.2851586848435</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27856,7 +27856,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>357.1527784446948</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.22223498598085</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>173.4137389355957</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>210.172410125945</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27913,7 +27913,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>358.3999121878506</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>145.8823016730944</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>149.5672885953991</v>
@@ -27938,10 +27938,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>133.6147831633436</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>121.4039133892705</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -27983,7 +27983,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>174.8553061153208</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>169.7768683171821</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>139.598227560161</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>139.9695766602387</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>139.0129017441268</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>155.2876044654746</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>26.20902125249397</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>201.0533175342936</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>272.3753904354372</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.93857089703936</v>
+        <v>57.93857089703927</v>
       </c>
       <c r="S11" t="n">
         <v>103.1614589323479</v>
@@ -28506,7 +28506,7 @@
         <v>103.1614589323479</v>
       </c>
       <c r="J16" t="n">
-        <v>103.1614589323471</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="K16" t="n">
         <v>103.1614589323479</v>
@@ -28524,7 +28524,7 @@
         <v>103.1614589323479</v>
       </c>
       <c r="P16" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323474</v>
       </c>
       <c r="Q16" t="n">
         <v>103.1614589323479</v>
@@ -28770,7 +28770,7 @@
         <v>137.8183107981087</v>
       </c>
       <c r="S19" t="n">
-        <v>155.2913510963838</v>
+        <v>118.4987158602642</v>
       </c>
       <c r="T19" t="n">
         <v>155.2913510963838</v>
@@ -28788,7 +28788,7 @@
         <v>155.2913510963838</v>
       </c>
       <c r="Y19" t="n">
-        <v>118.4987158602644</v>
+        <v>155.2913510963838</v>
       </c>
     </row>
     <row r="20">
@@ -28968,7 +28968,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>114.1632131883613</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>155.2913510963838</v>
@@ -29007,7 +29007,7 @@
         <v>137.8183107981087</v>
       </c>
       <c r="S22" t="n">
-        <v>155.2913510963838</v>
+        <v>118.4987158602642</v>
       </c>
       <c r="T22" t="n">
         <v>155.2913510963838</v>
@@ -29095,7 +29095,7 @@
         <v>155.2913510963838</v>
       </c>
       <c r="V23" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963833</v>
       </c>
       <c r="W23" t="n">
         <v>155.2913510963838</v>
@@ -29250,13 +29250,13 @@
         <v>155.2913510963838</v>
       </c>
       <c r="U25" t="n">
-        <v>118.4987158602645</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="V25" t="n">
         <v>155.2913510963838</v>
       </c>
       <c r="W25" t="n">
-        <v>155.2913510963838</v>
+        <v>118.4987158602642</v>
       </c>
       <c r="X25" t="n">
         <v>155.2913510963838</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="C26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="D26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="E26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="F26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="G26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="H26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="I26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="J26" t="n">
-        <v>103.1614589323479</v>
+        <v>26.68158251667802</v>
       </c>
       <c r="K26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="L26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="M26" t="n">
-        <v>26.68158251667694</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="N26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="O26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="P26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="Q26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="R26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="S26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="T26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="U26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="V26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="W26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="X26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="Y26" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="C28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="D28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="E28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="F28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="G28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="I28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="J28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="K28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="L28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="M28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="N28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="O28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="P28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="Q28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="R28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="S28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="T28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="U28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="V28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="W28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="X28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
     </row>
     <row r="29">
@@ -29542,7 +29542,7 @@
         <v>103.1614589323478</v>
       </c>
       <c r="M29" t="n">
-        <v>103.1614589323478</v>
+        <v>26.68158251667796</v>
       </c>
       <c r="N29" t="n">
         <v>103.1614589323478</v>
@@ -29554,7 +29554,7 @@
         <v>103.1614589323478</v>
       </c>
       <c r="Q29" t="n">
-        <v>26.681582516676</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="R29" t="n">
         <v>103.1614589323478</v>
@@ -29779,7 +29779,7 @@
         <v>103.661634002769</v>
       </c>
       <c r="M32" t="n">
-        <v>15.02522219785476</v>
+        <v>15.02522219785772</v>
       </c>
       <c r="N32" t="n">
         <v>103.661634002769</v>
@@ -29931,7 +29931,7 @@
         <v>103.661634002769</v>
       </c>
       <c r="K34" t="n">
-        <v>91.49494303358466</v>
+        <v>103.661634002769</v>
       </c>
       <c r="L34" t="n">
         <v>103.661634002769</v>
@@ -29943,7 +29943,7 @@
         <v>103.661634002769</v>
       </c>
       <c r="O34" t="n">
-        <v>103.661634002769</v>
+        <v>91.4949430335864</v>
       </c>
       <c r="P34" t="n">
         <v>103.661634002769</v>
@@ -30144,7 +30144,7 @@
         <v>155.2913510963838</v>
       </c>
       <c r="C37" t="n">
-        <v>118.4987158602642</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30210,7 +30210,7 @@
         <v>155.2913510963838</v>
       </c>
       <c r="Y37" t="n">
-        <v>155.2913510963838</v>
+        <v>118.4987158602642</v>
       </c>
     </row>
     <row r="38">
@@ -30432,7 +30432,7 @@
         <v>155.2913510963838</v>
       </c>
       <c r="T40" t="n">
-        <v>155.2913510963838</v>
+        <v>137.639722147711</v>
       </c>
       <c r="U40" t="n">
         <v>155.2913510963838</v>
@@ -30444,7 +30444,7 @@
         <v>155.2913510963838</v>
       </c>
       <c r="X40" t="n">
-        <v>137.6397221477109</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="Y40" t="n">
         <v>155.2913510963838</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="C41" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="D41" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="E41" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="F41" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="G41" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="H41" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="I41" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>57.93857089703927</v>
+        <v>57.93857089703928</v>
       </c>
       <c r="S41" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="T41" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="U41" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="V41" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="W41" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="X41" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="Y41" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="C43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="D43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="E43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="F43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="G43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="H43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="I43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="J43" t="n">
-        <v>122.5000170707242</v>
+        <v>43.40539611894807</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>122.5000170707242</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>98.68687690388847</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.59225595211145</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="R43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="S43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="T43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="U43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="V43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="W43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="X43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="Y43" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="C44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="D44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="E44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="F44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="G44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="H44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="I44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>57.93857089703927</v>
+        <v>57.93857089703928</v>
       </c>
       <c r="S44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="T44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="U44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="V44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="W44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="X44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="Y44" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="C46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="D46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="E46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="F46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="G46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="H46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="I46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="J46" t="n">
-        <v>43.40539611894806</v>
+        <v>43.40539611894807</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>98.68687690388853</v>
       </c>
       <c r="M46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="N46" t="n">
-        <v>98.68687690388776</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>122.5000170707242</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="R46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="S46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="T46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="U46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="V46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="W46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="X46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
       <c r="Y46" t="n">
-        <v>122.5000170707242</v>
+        <v>122.5000170707241</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5061322944630697</v>
+        <v>0.5061322944630711</v>
       </c>
       <c r="H11" t="n">
-        <v>5.183427360669914</v>
+        <v>5.183427360669928</v>
       </c>
       <c r="I11" t="n">
-        <v>19.51266528228751</v>
+        <v>19.51266528228757</v>
       </c>
       <c r="J11" t="n">
-        <v>42.957345827185</v>
+        <v>42.95734582718512</v>
       </c>
       <c r="K11" t="n">
-        <v>64.38192585180676</v>
+        <v>64.38192585180693</v>
       </c>
       <c r="L11" t="n">
-        <v>79.87147205848095</v>
+        <v>79.87147205848116</v>
       </c>
       <c r="M11" t="n">
-        <v>88.87240225013855</v>
+        <v>88.87240225013879</v>
       </c>
       <c r="N11" t="n">
-        <v>90.31045063178176</v>
+        <v>90.310450631782</v>
       </c>
       <c r="O11" t="n">
-        <v>85.2775976287146</v>
+        <v>85.27759762871483</v>
       </c>
       <c r="P11" t="n">
-        <v>72.78245660915756</v>
+        <v>72.78245660915776</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.65659381369885</v>
+        <v>54.656593813699</v>
       </c>
       <c r="R11" t="n">
-        <v>31.79333274206583</v>
+        <v>31.79333274206592</v>
       </c>
       <c r="S11" t="n">
-        <v>11.53348966007721</v>
+        <v>11.53348966007724</v>
       </c>
       <c r="T11" t="n">
-        <v>2.215594119012089</v>
+        <v>2.215594119012095</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04049058355704557</v>
+        <v>0.04049058355704568</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2708046517025757</v>
+        <v>0.2708046517025764</v>
       </c>
       <c r="H12" t="n">
-        <v>2.615402820390666</v>
+        <v>2.615402820390673</v>
       </c>
       <c r="I12" t="n">
-        <v>9.323756648531663</v>
+        <v>9.323756648531688</v>
       </c>
       <c r="J12" t="n">
-        <v>25.58510088739116</v>
+        <v>25.58510088739122</v>
       </c>
       <c r="K12" t="n">
-        <v>43.72901255146373</v>
+        <v>43.72901255146385</v>
       </c>
       <c r="L12" t="n">
-        <v>58.79905387077197</v>
+        <v>58.79905387077213</v>
       </c>
       <c r="M12" t="n">
-        <v>68.61572249499032</v>
+        <v>68.61572249499051</v>
       </c>
       <c r="N12" t="n">
-        <v>70.43177649697823</v>
+        <v>70.43177649697842</v>
       </c>
       <c r="O12" t="n">
-        <v>64.43131553030535</v>
+        <v>64.43131553030554</v>
       </c>
       <c r="P12" t="n">
-        <v>51.71181107818746</v>
+        <v>51.7118110781876</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.5679762418937</v>
+        <v>34.56797624189379</v>
       </c>
       <c r="R12" t="n">
-        <v>16.81364319956869</v>
+        <v>16.81364319956874</v>
       </c>
       <c r="S12" t="n">
-        <v>5.030077631405295</v>
+        <v>5.030077631405309</v>
       </c>
       <c r="T12" t="n">
-        <v>1.091532784713451</v>
+        <v>1.091532784713455</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01781609550674841</v>
+        <v>0.01781609550674846</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2270335230696025</v>
+        <v>0.2270335230696031</v>
       </c>
       <c r="H13" t="n">
-        <v>2.01853441420065</v>
+        <v>2.018534414200655</v>
       </c>
       <c r="I13" t="n">
-        <v>6.827517221038595</v>
+        <v>6.827517221038613</v>
       </c>
       <c r="J13" t="n">
-        <v>16.0512700810209</v>
+        <v>16.05127008102094</v>
       </c>
       <c r="K13" t="n">
-        <v>26.37716749845018</v>
+        <v>26.37716749845025</v>
       </c>
       <c r="L13" t="n">
-        <v>33.75369305709346</v>
+        <v>33.75369305709355</v>
       </c>
       <c r="M13" t="n">
-        <v>35.5885367117196</v>
+        <v>35.5885367117197</v>
       </c>
       <c r="N13" t="n">
-        <v>34.74232085300565</v>
+        <v>34.74232085300575</v>
       </c>
       <c r="O13" t="n">
-        <v>32.09015651532892</v>
+        <v>32.09015651532901</v>
       </c>
       <c r="P13" t="n">
-        <v>27.45867264470901</v>
+        <v>27.45867264470908</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.01096164540099</v>
+        <v>19.01096164540104</v>
       </c>
       <c r="R13" t="n">
-        <v>10.20825277365685</v>
+        <v>10.20825277365688</v>
       </c>
       <c r="S13" t="n">
-        <v>3.956575124767526</v>
+        <v>3.956575124767537</v>
       </c>
       <c r="T13" t="n">
-        <v>0.970052325842847</v>
+        <v>0.9700523258428495</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01238364671288742</v>
+        <v>0.01238364671288746</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5061322944630706</v>
+        <v>0.5061322944630711</v>
       </c>
       <c r="H26" t="n">
-        <v>5.183427360669923</v>
+        <v>5.183427360669928</v>
       </c>
       <c r="I26" t="n">
-        <v>19.51266528228755</v>
+        <v>19.51266528228757</v>
       </c>
       <c r="J26" t="n">
-        <v>42.95734582718508</v>
+        <v>42.95734582718512</v>
       </c>
       <c r="K26" t="n">
-        <v>64.38192585180687</v>
+        <v>64.38192585180693</v>
       </c>
       <c r="L26" t="n">
-        <v>79.87147205848109</v>
+        <v>79.87147205848116</v>
       </c>
       <c r="M26" t="n">
-        <v>88.87240225013872</v>
+        <v>88.87240225013879</v>
       </c>
       <c r="N26" t="n">
-        <v>90.31045063178192</v>
+        <v>90.310450631782</v>
       </c>
       <c r="O26" t="n">
-        <v>85.27759762871476</v>
+        <v>85.27759762871483</v>
       </c>
       <c r="P26" t="n">
-        <v>72.78245660915769</v>
+        <v>72.78245660915776</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.65659381369895</v>
+        <v>54.656593813699</v>
       </c>
       <c r="R26" t="n">
-        <v>31.79333274206589</v>
+        <v>31.79333274206592</v>
       </c>
       <c r="S26" t="n">
-        <v>11.53348966007723</v>
+        <v>11.53348966007724</v>
       </c>
       <c r="T26" t="n">
-        <v>2.215594119012093</v>
+        <v>2.215594119012095</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04049058355704564</v>
+        <v>0.04049058355704568</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2708046517025762</v>
+        <v>0.2708046517025764</v>
       </c>
       <c r="H27" t="n">
-        <v>2.61540282039067</v>
+        <v>2.615402820390673</v>
       </c>
       <c r="I27" t="n">
-        <v>9.323756648531681</v>
+        <v>9.323756648531688</v>
       </c>
       <c r="J27" t="n">
-        <v>25.5851008873912</v>
+        <v>25.58510088739122</v>
       </c>
       <c r="K27" t="n">
-        <v>43.7290125514638</v>
+        <v>43.72901255146385</v>
       </c>
       <c r="L27" t="n">
-        <v>58.79905387077208</v>
+        <v>58.79905387077213</v>
       </c>
       <c r="M27" t="n">
-        <v>68.61572249499045</v>
+        <v>68.61572249499051</v>
       </c>
       <c r="N27" t="n">
-        <v>70.43177649697836</v>
+        <v>70.43177649697842</v>
       </c>
       <c r="O27" t="n">
-        <v>64.43131553030548</v>
+        <v>64.43131553030554</v>
       </c>
       <c r="P27" t="n">
-        <v>51.71181107818755</v>
+        <v>51.7118110781876</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.56797624189376</v>
+        <v>34.56797624189379</v>
       </c>
       <c r="R27" t="n">
-        <v>16.81364319956873</v>
+        <v>16.81364319956874</v>
       </c>
       <c r="S27" t="n">
-        <v>5.030077631405304</v>
+        <v>5.030077631405309</v>
       </c>
       <c r="T27" t="n">
-        <v>1.091532784713453</v>
+        <v>1.091532784713455</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01781609550674844</v>
+        <v>0.01781609550674846</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2270335230696029</v>
+        <v>0.2270335230696031</v>
       </c>
       <c r="H28" t="n">
-        <v>2.018534414200653</v>
+        <v>2.018534414200655</v>
       </c>
       <c r="I28" t="n">
-        <v>6.827517221038607</v>
+        <v>6.827517221038613</v>
       </c>
       <c r="J28" t="n">
-        <v>16.05127008102093</v>
+        <v>16.05127008102094</v>
       </c>
       <c r="K28" t="n">
-        <v>26.37716749845023</v>
+        <v>26.37716749845025</v>
       </c>
       <c r="L28" t="n">
-        <v>33.75369305709352</v>
+        <v>33.75369305709355</v>
       </c>
       <c r="M28" t="n">
-        <v>35.58853671171966</v>
+        <v>35.5885367117197</v>
       </c>
       <c r="N28" t="n">
-        <v>34.74232085300572</v>
+        <v>34.74232085300575</v>
       </c>
       <c r="O28" t="n">
-        <v>32.09015651532898</v>
+        <v>32.09015651532901</v>
       </c>
       <c r="P28" t="n">
-        <v>27.45867264470906</v>
+        <v>27.45867264470908</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.01096164540103</v>
+        <v>19.01096164540104</v>
       </c>
       <c r="R28" t="n">
-        <v>10.20825277365687</v>
+        <v>10.20825277365688</v>
       </c>
       <c r="S28" t="n">
-        <v>3.956575124767534</v>
+        <v>3.956575124767537</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9700523258428486</v>
+        <v>0.9700523258428495</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01238364671288745</v>
+        <v>0.01238364671288746</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5061322944630711</v>
+        <v>0.5061322944630716</v>
       </c>
       <c r="H29" t="n">
-        <v>5.183427360669928</v>
+        <v>5.183427360669933</v>
       </c>
       <c r="I29" t="n">
-        <v>19.51266528228757</v>
+        <v>19.51266528228759</v>
       </c>
       <c r="J29" t="n">
-        <v>42.95734582718512</v>
+        <v>42.95734582718516</v>
       </c>
       <c r="K29" t="n">
-        <v>64.38192585180693</v>
+        <v>64.381925851807</v>
       </c>
       <c r="L29" t="n">
-        <v>79.87147205848116</v>
+        <v>79.87147205848125</v>
       </c>
       <c r="M29" t="n">
-        <v>88.87240225013879</v>
+        <v>88.87240225013889</v>
       </c>
       <c r="N29" t="n">
-        <v>90.310450631782</v>
+        <v>90.3104506317821</v>
       </c>
       <c r="O29" t="n">
-        <v>85.27759762871483</v>
+        <v>85.27759762871493</v>
       </c>
       <c r="P29" t="n">
-        <v>72.78245660915776</v>
+        <v>72.78245660915783</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.656593813699</v>
+        <v>54.65659381369906</v>
       </c>
       <c r="R29" t="n">
-        <v>31.79333274206592</v>
+        <v>31.79333274206595</v>
       </c>
       <c r="S29" t="n">
-        <v>11.53348966007724</v>
+        <v>11.53348966007726</v>
       </c>
       <c r="T29" t="n">
-        <v>2.215594119012095</v>
+        <v>2.215594119012097</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04049058355704568</v>
+        <v>0.04049058355704572</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2708046517025764</v>
+        <v>0.2708046517025767</v>
       </c>
       <c r="H30" t="n">
-        <v>2.615402820390673</v>
+        <v>2.615402820390675</v>
       </c>
       <c r="I30" t="n">
-        <v>9.323756648531688</v>
+        <v>9.323756648531699</v>
       </c>
       <c r="J30" t="n">
-        <v>25.58510088739122</v>
+        <v>25.58510088739125</v>
       </c>
       <c r="K30" t="n">
-        <v>43.72901255146385</v>
+        <v>43.72901255146389</v>
       </c>
       <c r="L30" t="n">
-        <v>58.79905387077213</v>
+        <v>58.79905387077219</v>
       </c>
       <c r="M30" t="n">
-        <v>68.61572249499051</v>
+        <v>68.61572249499058</v>
       </c>
       <c r="N30" t="n">
-        <v>70.43177649697842</v>
+        <v>70.43177649697849</v>
       </c>
       <c r="O30" t="n">
-        <v>64.43131553030554</v>
+        <v>64.4313155303056</v>
       </c>
       <c r="P30" t="n">
-        <v>51.7118110781876</v>
+        <v>51.71181107818765</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.56797624189379</v>
+        <v>34.56797624189382</v>
       </c>
       <c r="R30" t="n">
-        <v>16.81364319956874</v>
+        <v>16.81364319956876</v>
       </c>
       <c r="S30" t="n">
-        <v>5.030077631405309</v>
+        <v>5.030077631405313</v>
       </c>
       <c r="T30" t="n">
-        <v>1.091532784713455</v>
+        <v>1.091532784713456</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01781609550674846</v>
+        <v>0.01781609550674847</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2270335230696031</v>
+        <v>0.2270335230696034</v>
       </c>
       <c r="H31" t="n">
-        <v>2.018534414200655</v>
+        <v>2.018534414200657</v>
       </c>
       <c r="I31" t="n">
-        <v>6.827517221038613</v>
+        <v>6.82751722103862</v>
       </c>
       <c r="J31" t="n">
-        <v>16.05127008102094</v>
+        <v>16.05127008102096</v>
       </c>
       <c r="K31" t="n">
-        <v>26.37716749845025</v>
+        <v>26.37716749845028</v>
       </c>
       <c r="L31" t="n">
-        <v>33.75369305709355</v>
+        <v>33.75369305709359</v>
       </c>
       <c r="M31" t="n">
-        <v>35.5885367117197</v>
+        <v>35.58853671171973</v>
       </c>
       <c r="N31" t="n">
-        <v>34.74232085300575</v>
+        <v>34.74232085300579</v>
       </c>
       <c r="O31" t="n">
-        <v>32.09015651532901</v>
+        <v>32.09015651532904</v>
       </c>
       <c r="P31" t="n">
-        <v>27.45867264470908</v>
+        <v>27.45867264470911</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.01096164540104</v>
+        <v>19.01096164540106</v>
       </c>
       <c r="R31" t="n">
-        <v>10.20825277365688</v>
+        <v>10.20825277365689</v>
       </c>
       <c r="S31" t="n">
-        <v>3.956575124767537</v>
+        <v>3.956575124767541</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9700523258428495</v>
+        <v>0.9700523258428505</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01238364671288746</v>
+        <v>0.01238364671288747</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5061322944630711</v>
+        <v>0.5061322944630707</v>
       </c>
       <c r="H41" t="n">
-        <v>5.183427360669928</v>
+        <v>5.183427360669925</v>
       </c>
       <c r="I41" t="n">
-        <v>19.51266528228757</v>
+        <v>19.51266528228755</v>
       </c>
       <c r="J41" t="n">
-        <v>42.95734582718512</v>
+        <v>42.95734582718509</v>
       </c>
       <c r="K41" t="n">
-        <v>64.38192585180693</v>
+        <v>64.38192585180688</v>
       </c>
       <c r="L41" t="n">
-        <v>79.87147205848116</v>
+        <v>79.8714720584811</v>
       </c>
       <c r="M41" t="n">
-        <v>88.87240225013879</v>
+        <v>88.87240225013873</v>
       </c>
       <c r="N41" t="n">
-        <v>90.310450631782</v>
+        <v>90.31045063178195</v>
       </c>
       <c r="O41" t="n">
-        <v>85.27759762871483</v>
+        <v>85.27759762871477</v>
       </c>
       <c r="P41" t="n">
-        <v>72.78245660915776</v>
+        <v>72.78245660915771</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.656593813699</v>
+        <v>54.65659381369897</v>
       </c>
       <c r="R41" t="n">
-        <v>31.79333274206592</v>
+        <v>31.7933327420659</v>
       </c>
       <c r="S41" t="n">
         <v>11.53348966007724</v>
       </c>
       <c r="T41" t="n">
-        <v>2.215594119012095</v>
+        <v>2.215594119012093</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04049058355704568</v>
+        <v>0.04049058355704565</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2708046517025764</v>
+        <v>0.2708046517025762</v>
       </c>
       <c r="H42" t="n">
-        <v>2.615402820390673</v>
+        <v>2.615402820390671</v>
       </c>
       <c r="I42" t="n">
-        <v>9.323756648531688</v>
+        <v>9.323756648531683</v>
       </c>
       <c r="J42" t="n">
-        <v>25.58510088739122</v>
+        <v>25.58510088739121</v>
       </c>
       <c r="K42" t="n">
-        <v>43.72901255146385</v>
+        <v>43.72901255146381</v>
       </c>
       <c r="L42" t="n">
-        <v>58.79905387077213</v>
+        <v>58.79905387077209</v>
       </c>
       <c r="M42" t="n">
-        <v>68.61572249499051</v>
+        <v>68.61572249499046</v>
       </c>
       <c r="N42" t="n">
-        <v>70.43177649697842</v>
+        <v>70.43177649697837</v>
       </c>
       <c r="O42" t="n">
-        <v>64.43131553030554</v>
+        <v>64.4313155303055</v>
       </c>
       <c r="P42" t="n">
-        <v>51.7118110781876</v>
+        <v>51.71181107818757</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.56797624189379</v>
+        <v>34.56797624189377</v>
       </c>
       <c r="R42" t="n">
-        <v>16.81364319956874</v>
+        <v>16.81364319956873</v>
       </c>
       <c r="S42" t="n">
-        <v>5.030077631405309</v>
+        <v>5.030077631405305</v>
       </c>
       <c r="T42" t="n">
-        <v>1.091532784713455</v>
+        <v>1.091532784713454</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01781609550674846</v>
+        <v>0.01781609550674844</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2270335230696031</v>
+        <v>0.227033523069603</v>
       </c>
       <c r="H43" t="n">
-        <v>2.018534414200655</v>
+        <v>2.018534414200654</v>
       </c>
       <c r="I43" t="n">
-        <v>6.827517221038613</v>
+        <v>6.827517221038608</v>
       </c>
       <c r="J43" t="n">
-        <v>16.05127008102094</v>
+        <v>16.05127008102093</v>
       </c>
       <c r="K43" t="n">
-        <v>26.37716749845025</v>
+        <v>26.37716749845023</v>
       </c>
       <c r="L43" t="n">
-        <v>33.75369305709355</v>
+        <v>33.75369305709353</v>
       </c>
       <c r="M43" t="n">
-        <v>35.5885367117197</v>
+        <v>35.58853671171967</v>
       </c>
       <c r="N43" t="n">
-        <v>34.74232085300575</v>
+        <v>34.74232085300572</v>
       </c>
       <c r="O43" t="n">
-        <v>32.09015651532901</v>
+        <v>32.09015651532899</v>
       </c>
       <c r="P43" t="n">
-        <v>27.45867264470908</v>
+        <v>27.45867264470906</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.01096164540104</v>
+        <v>19.01096164540103</v>
       </c>
       <c r="R43" t="n">
-        <v>10.20825277365688</v>
+        <v>10.20825277365687</v>
       </c>
       <c r="S43" t="n">
-        <v>3.956575124767537</v>
+        <v>3.956575124767534</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9700523258428495</v>
+        <v>0.9700523258428488</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01238364671288746</v>
+        <v>0.01238364671288745</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5061322944630711</v>
+        <v>0.5061322944630707</v>
       </c>
       <c r="H44" t="n">
-        <v>5.183427360669928</v>
+        <v>5.183427360669925</v>
       </c>
       <c r="I44" t="n">
-        <v>19.51266528228757</v>
+        <v>19.51266528228755</v>
       </c>
       <c r="J44" t="n">
-        <v>42.95734582718512</v>
+        <v>42.95734582718509</v>
       </c>
       <c r="K44" t="n">
-        <v>64.38192585180693</v>
+        <v>64.38192585180688</v>
       </c>
       <c r="L44" t="n">
-        <v>79.87147205848116</v>
+        <v>79.8714720584811</v>
       </c>
       <c r="M44" t="n">
-        <v>88.87240225013879</v>
+        <v>88.87240225013873</v>
       </c>
       <c r="N44" t="n">
-        <v>90.310450631782</v>
+        <v>90.31045063178195</v>
       </c>
       <c r="O44" t="n">
-        <v>85.27759762871483</v>
+        <v>85.27759762871477</v>
       </c>
       <c r="P44" t="n">
-        <v>72.78245660915776</v>
+        <v>72.78245660915771</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.656593813699</v>
+        <v>54.65659381369897</v>
       </c>
       <c r="R44" t="n">
-        <v>31.79333274206592</v>
+        <v>31.7933327420659</v>
       </c>
       <c r="S44" t="n">
         <v>11.53348966007724</v>
       </c>
       <c r="T44" t="n">
-        <v>2.215594119012095</v>
+        <v>2.215594119012093</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04049058355704568</v>
+        <v>0.04049058355704565</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2708046517025764</v>
+        <v>0.2708046517025762</v>
       </c>
       <c r="H45" t="n">
-        <v>2.615402820390673</v>
+        <v>2.615402820390671</v>
       </c>
       <c r="I45" t="n">
-        <v>9.323756648531688</v>
+        <v>9.323756648531683</v>
       </c>
       <c r="J45" t="n">
-        <v>25.58510088739122</v>
+        <v>25.58510088739121</v>
       </c>
       <c r="K45" t="n">
-        <v>43.72901255146385</v>
+        <v>43.72901255146381</v>
       </c>
       <c r="L45" t="n">
-        <v>58.79905387077213</v>
+        <v>58.79905387077209</v>
       </c>
       <c r="M45" t="n">
-        <v>68.61572249499051</v>
+        <v>68.61572249499046</v>
       </c>
       <c r="N45" t="n">
-        <v>70.43177649697842</v>
+        <v>70.43177649697837</v>
       </c>
       <c r="O45" t="n">
-        <v>64.43131553030554</v>
+        <v>64.4313155303055</v>
       </c>
       <c r="P45" t="n">
-        <v>51.7118110781876</v>
+        <v>51.71181107818757</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.56797624189379</v>
+        <v>34.56797624189377</v>
       </c>
       <c r="R45" t="n">
-        <v>16.81364319956874</v>
+        <v>16.81364319956873</v>
       </c>
       <c r="S45" t="n">
-        <v>5.030077631405309</v>
+        <v>5.030077631405305</v>
       </c>
       <c r="T45" t="n">
-        <v>1.091532784713455</v>
+        <v>1.091532784713454</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01781609550674846</v>
+        <v>0.01781609550674844</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2270335230696031</v>
+        <v>0.227033523069603</v>
       </c>
       <c r="H46" t="n">
-        <v>2.018534414200655</v>
+        <v>2.018534414200654</v>
       </c>
       <c r="I46" t="n">
-        <v>6.827517221038613</v>
+        <v>6.827517221038608</v>
       </c>
       <c r="J46" t="n">
-        <v>16.05127008102094</v>
+        <v>16.05127008102093</v>
       </c>
       <c r="K46" t="n">
-        <v>26.37716749845025</v>
+        <v>26.37716749845023</v>
       </c>
       <c r="L46" t="n">
-        <v>33.75369305709355</v>
+        <v>33.75369305709353</v>
       </c>
       <c r="M46" t="n">
-        <v>35.5885367117197</v>
+        <v>35.58853671171967</v>
       </c>
       <c r="N46" t="n">
-        <v>34.74232085300575</v>
+        <v>34.74232085300572</v>
       </c>
       <c r="O46" t="n">
-        <v>32.09015651532901</v>
+        <v>32.09015651532899</v>
       </c>
       <c r="P46" t="n">
-        <v>27.45867264470908</v>
+        <v>27.45867264470906</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.01096164540104</v>
+        <v>19.01096164540103</v>
       </c>
       <c r="R46" t="n">
-        <v>10.20825277365688</v>
+        <v>10.20825277365687</v>
       </c>
       <c r="S46" t="n">
-        <v>3.956575124767537</v>
+        <v>3.956575124767534</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9700523258428495</v>
+        <v>0.9700523258428488</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01238364671288746</v>
+        <v>0.01238364671288745</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,11 +34696,11 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
+        <v>9.605247316954337</v>
+      </c>
+      <c r="Q2" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.605247316954333</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>10.00967878293136</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L3" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>9.605247316954337</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L4" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="N4" t="n">
-        <v>9.605247316954337</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>10.00967878293136</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P5" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="K6" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>9.605247316954337</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.605247316954333</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L7" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>10.00967878293136</v>
@@ -35106,7 +35106,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="O7" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K8" t="n">
         <v>11.94294668035388</v>
@@ -35182,13 +35182,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>11.94294668035388</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>11.94294668035388</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="P9" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
       <c r="M10" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>11.94294668035388</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>115.6831481229483</v>
+        <v>115.6831481229484</v>
       </c>
       <c r="K11" t="n">
-        <v>306.9479582202742</v>
+        <v>306.9479582202744</v>
       </c>
       <c r="L11" t="n">
-        <v>431.2708388109519</v>
+        <v>431.2708388109521</v>
       </c>
       <c r="M11" t="n">
-        <v>486.0836812936617</v>
+        <v>486.083681293662</v>
       </c>
       <c r="N11" t="n">
-        <v>472.463338195131</v>
+        <v>472.4633381951312</v>
       </c>
       <c r="O11" t="n">
-        <v>393.363036490163</v>
+        <v>393.3630364901633</v>
       </c>
       <c r="P11" t="n">
-        <v>303.2439681809285</v>
+        <v>303.2439681809287</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.0427086485847</v>
+        <v>150.0427086485849</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>86.44787516325596</v>
+        <v>86.44787516325601</v>
       </c>
       <c r="K12" t="n">
-        <v>275.5376515011492</v>
+        <v>193.5093305425712</v>
       </c>
       <c r="L12" t="n">
-        <v>428.3160691941211</v>
+        <v>428.3160691941213</v>
       </c>
       <c r="M12" t="n">
-        <v>119.6608775638108</v>
+        <v>558.5484028083506</v>
       </c>
       <c r="N12" t="n">
-        <v>586.8617220758895</v>
+        <v>586.8617220758896</v>
       </c>
       <c r="O12" t="n">
-        <v>460.5928819789426</v>
+        <v>460.5928819789428</v>
       </c>
       <c r="P12" t="n">
-        <v>356.8592042859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>193.933258853605</v>
+        <v>193.9332588536051</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.75606281339978</v>
+        <v>59.75606281339982</v>
       </c>
       <c r="K13" t="n">
         <v>163.4822504152864</v>
       </c>
       <c r="L13" t="n">
-        <v>238.538464514956</v>
+        <v>238.5384645149561</v>
       </c>
       <c r="M13" t="n">
-        <v>257.9353553689177</v>
+        <v>257.9353553689178</v>
       </c>
       <c r="N13" t="n">
-        <v>257.5223068051519</v>
+        <v>257.522306805152</v>
       </c>
       <c r="O13" t="n">
-        <v>234.7098442312017</v>
+        <v>234.7098442312018</v>
       </c>
       <c r="P13" t="n">
-        <v>194.2246605953779</v>
+        <v>194.224660595378</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.02045264490101</v>
+        <v>84.02045264490107</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>86.44787516325601</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>275.5376515011494</v>
       </c>
       <c r="L15" t="n">
         <v>428.3160691941213</v>
       </c>
       <c r="M15" t="n">
-        <v>558.5484028083506</v>
+        <v>206.108752727066</v>
       </c>
       <c r="N15" t="n">
         <v>586.8617220758896</v>
@@ -35741,7 +35741,7 @@
         <v>460.5928819789428</v>
       </c>
       <c r="P15" t="n">
-        <v>193.5093305425713</v>
+        <v>356.8592042859626</v>
       </c>
       <c r="Q15" t="n">
         <v>193.9332588536051</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.75606281339902</v>
+        <v>59.75606281339981</v>
       </c>
       <c r="K16" t="n">
         <v>163.4822504152864</v>
@@ -35820,10 +35820,10 @@
         <v>234.7098442312018</v>
       </c>
       <c r="P16" t="n">
-        <v>194.224660595378</v>
+        <v>194.2246605953775</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.02045264490107</v>
+        <v>84.02045264490106</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,13 +35893,13 @@
         <v>486.083681293662</v>
       </c>
       <c r="N17" t="n">
-        <v>472.4633381951312</v>
+        <v>472.4633381951315</v>
       </c>
       <c r="O17" t="n">
         <v>393.3630364901633</v>
       </c>
       <c r="P17" t="n">
-        <v>303.2439681809289</v>
+        <v>303.2439681809287</v>
       </c>
       <c r="Q17" t="n">
         <v>150.0427086485849</v>
@@ -36127,7 +36127,7 @@
         <v>431.2708388109521</v>
       </c>
       <c r="M20" t="n">
-        <v>486.083681293662</v>
+        <v>486.0836812936622</v>
       </c>
       <c r="N20" t="n">
         <v>472.4633381951312</v>
@@ -36139,7 +36139,7 @@
         <v>303.2439681809287</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.0427086485854</v>
+        <v>150.0427086485849</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>428.3160691941213</v>
       </c>
       <c r="M21" t="n">
-        <v>558.5484028083506</v>
+        <v>119.66087756381</v>
       </c>
       <c r="N21" t="n">
         <v>586.8617220758896</v>
       </c>
       <c r="O21" t="n">
-        <v>21.70535673440214</v>
+        <v>460.5928819789428</v>
       </c>
       <c r="P21" t="n">
         <v>356.8592042859626</v>
@@ -36367,7 +36367,7 @@
         <v>486.083681293662</v>
       </c>
       <c r="N23" t="n">
-        <v>472.4633381951312</v>
+        <v>472.4633381951315</v>
       </c>
       <c r="O23" t="n">
         <v>393.3630364901633</v>
@@ -36443,10 +36443,10 @@
         <v>428.3160691941213</v>
       </c>
       <c r="M24" t="n">
-        <v>119.66087756381</v>
+        <v>558.5484028083506</v>
       </c>
       <c r="N24" t="n">
-        <v>586.8617220758896</v>
+        <v>147.9741968313491</v>
       </c>
       <c r="O24" t="n">
         <v>460.5928819789428</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>218.8446070552962</v>
+        <v>142.3647306396264</v>
       </c>
       <c r="K26" t="n">
         <v>410.1094171526222</v>
@@ -36601,7 +36601,7 @@
         <v>534.4322977432998</v>
       </c>
       <c r="M26" t="n">
-        <v>512.7652638103389</v>
+        <v>589.2451402260098</v>
       </c>
       <c r="N26" t="n">
         <v>575.624797127479</v>
@@ -36613,10 +36613,10 @@
         <v>406.4054271132765</v>
       </c>
       <c r="Q26" t="n">
-        <v>253.2041675809326</v>
+        <v>253.2041675809327</v>
       </c>
       <c r="R26" t="n">
-        <v>45.22288803530856</v>
+        <v>45.22288803530854</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>86.447875163256</v>
+        <v>86.44787516325601</v>
       </c>
       <c r="K27" t="n">
         <v>275.5376515011494</v>
       </c>
       <c r="L27" t="n">
-        <v>428.3160691941212</v>
+        <v>428.3160691941213</v>
       </c>
       <c r="M27" t="n">
-        <v>558.5484028083505</v>
+        <v>558.5484028083506</v>
       </c>
       <c r="N27" t="n">
-        <v>147.9741968313491</v>
+        <v>147.9741968313488</v>
       </c>
       <c r="O27" t="n">
-        <v>460.5928819789427</v>
+        <v>460.5928819789428</v>
       </c>
       <c r="P27" t="n">
         <v>356.8592042859626</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.75606281339978</v>
+        <v>59.75606281339975</v>
       </c>
       <c r="K28" t="n">
         <v>163.4822504152864</v>
@@ -36771,7 +36771,7 @@
         <v>194.2246605953779</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.02045264490103</v>
+        <v>84.020452644901</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>218.8446070552963</v>
       </c>
       <c r="K29" t="n">
-        <v>410.1094171526222</v>
+        <v>410.1094171526223</v>
       </c>
       <c r="L29" t="n">
-        <v>534.4322977433</v>
+        <v>534.4322977433001</v>
       </c>
       <c r="M29" t="n">
-        <v>589.2451402260098</v>
+        <v>512.76526381034</v>
       </c>
       <c r="N29" t="n">
-        <v>575.624797127479</v>
+        <v>575.6247971274792</v>
       </c>
       <c r="O29" t="n">
-        <v>496.5244954225111</v>
+        <v>496.5244954225112</v>
       </c>
       <c r="P29" t="n">
-        <v>406.4054271132765</v>
+        <v>406.4054271132766</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.7242911652609</v>
+        <v>253.2041675809328</v>
       </c>
       <c r="R29" t="n">
-        <v>45.22288803530857</v>
+        <v>45.22288803530859</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>86.44787516325604</v>
       </c>
       <c r="K30" t="n">
         <v>275.5376515011494</v>
@@ -36920,7 +36920,7 @@
         <v>558.5484028083506</v>
       </c>
       <c r="N30" t="n">
-        <v>234.4220719946048</v>
+        <v>147.9741968313484</v>
       </c>
       <c r="O30" t="n">
         <v>460.5928819789428</v>
@@ -36929,7 +36929,7 @@
         <v>356.8592042859626</v>
       </c>
       <c r="Q30" t="n">
-        <v>193.9332588536051</v>
+        <v>193.9332588536052</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>194.2246605953779</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.02045264490103</v>
+        <v>84.02045264490104</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>410.6095922230434</v>
       </c>
       <c r="L32" t="n">
-        <v>534.9324728137211</v>
+        <v>534.932472813721</v>
       </c>
       <c r="M32" t="n">
-        <v>501.1089034915167</v>
+        <v>501.1089034915197</v>
       </c>
       <c r="N32" t="n">
-        <v>576.1249721979003</v>
+        <v>576.1249721979002</v>
       </c>
       <c r="O32" t="n">
-        <v>497.0246704929323</v>
+        <v>497.0246704929322</v>
       </c>
       <c r="P32" t="n">
-        <v>406.9056021836977</v>
+        <v>406.9056021836976</v>
       </c>
       <c r="Q32" t="n">
-        <v>253.7043426513539</v>
+        <v>253.7043426513538</v>
       </c>
       <c r="R32" t="n">
-        <v>45.72306310572976</v>
+        <v>45.72306310572969</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>275.5376515011494</v>
       </c>
       <c r="L33" t="n">
         <v>428.3160691941213</v>
@@ -37157,10 +37157,10 @@
         <v>558.5484028083506</v>
       </c>
       <c r="N33" t="n">
-        <v>586.8617220758896</v>
+        <v>234.4220719946051</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6908833988076</v>
+        <v>460.5928819789428</v>
       </c>
       <c r="P33" t="n">
         <v>356.8592042859626</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.25623788382097</v>
+        <v>60.2562378838209</v>
       </c>
       <c r="K34" t="n">
-        <v>151.8157345165232</v>
+        <v>163.9824254857075</v>
       </c>
       <c r="L34" t="n">
         <v>239.0386395853772</v>
@@ -37239,13 +37239,13 @@
         <v>258.0224818755731</v>
       </c>
       <c r="O34" t="n">
-        <v>235.210019301623</v>
+        <v>223.0433283324403</v>
       </c>
       <c r="P34" t="n">
-        <v>194.7248356657991</v>
+        <v>194.724835665799</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.52062771532222</v>
+        <v>84.52062771532215</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>86.44787516325601</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>275.5376515011494</v>
       </c>
       <c r="L36" t="n">
         <v>428.3160691941213</v>
@@ -37400,10 +37400,10 @@
         <v>460.5928819789428</v>
       </c>
       <c r="P36" t="n">
-        <v>279.9572057058275</v>
+        <v>111.904937895027</v>
       </c>
       <c r="Q36" t="n">
-        <v>193.9332588536051</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>86.44787516325601</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>275.5376515011494</v>
       </c>
       <c r="L39" t="n">
         <v>428.3160691941213</v>
@@ -37634,10 +37634,10 @@
         <v>586.8617220758896</v>
       </c>
       <c r="O39" t="n">
-        <v>460.5928819789428</v>
+        <v>21.70535673440214</v>
       </c>
       <c r="P39" t="n">
-        <v>279.9572057058275</v>
+        <v>356.8592042859626</v>
       </c>
       <c r="Q39" t="n">
         <v>193.9332588536051</v>
@@ -37780,25 +37780,25 @@
         <v>115.6831481229484</v>
       </c>
       <c r="K41" t="n">
-        <v>306.9479582202744</v>
+        <v>306.9479582202743</v>
       </c>
       <c r="L41" t="n">
         <v>431.2708388109521</v>
       </c>
       <c r="M41" t="n">
-        <v>486.083681293662</v>
+        <v>486.0836812936619</v>
       </c>
       <c r="N41" t="n">
-        <v>472.4633381951325</v>
+        <v>472.4633381951312</v>
       </c>
       <c r="O41" t="n">
-        <v>393.3630364901633</v>
+        <v>393.3630364901632</v>
       </c>
       <c r="P41" t="n">
-        <v>303.2439681809287</v>
+        <v>303.2439681809286</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.0427086485849</v>
+        <v>150.0427086485848</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>86.44787516325601</v>
+        <v>86.447875163256</v>
       </c>
       <c r="K42" t="n">
         <v>275.5376515011494</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>428.3160691941212</v>
       </c>
       <c r="M42" t="n">
-        <v>558.5484028083506</v>
+        <v>558.5484028083505</v>
       </c>
       <c r="N42" t="n">
         <v>586.8617220758896</v>
       </c>
       <c r="O42" t="n">
-        <v>460.5928819789428</v>
+        <v>21.70535673440237</v>
       </c>
       <c r="P42" t="n">
-        <v>346.2877482355434</v>
+        <v>356.8592042859626</v>
       </c>
       <c r="Q42" t="n">
         <v>193.9332588536051</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.09462095177611</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>60.32079148293855</v>
+        <v>60.32079148293853</v>
       </c>
       <c r="L43" t="n">
-        <v>257.8770226533323</v>
+        <v>135.3770055826082</v>
       </c>
       <c r="M43" t="n">
-        <v>277.2739135072941</v>
+        <v>277.273913507294</v>
       </c>
       <c r="N43" t="n">
-        <v>154.3608478728041</v>
+        <v>253.0477247766925</v>
       </c>
       <c r="O43" t="n">
         <v>131.5483852988539</v>
       </c>
       <c r="P43" t="n">
-        <v>213.5632187337543</v>
+        <v>213.5632187337542</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4512496646646358</v>
+        <v>103.3590107832773</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,25 +38017,25 @@
         <v>115.6831481229484</v>
       </c>
       <c r="K44" t="n">
-        <v>306.9479582202744</v>
+        <v>306.9479582202743</v>
       </c>
       <c r="L44" t="n">
         <v>431.2708388109521</v>
       </c>
       <c r="M44" t="n">
-        <v>486.083681293662</v>
+        <v>486.0836812936619</v>
       </c>
       <c r="N44" t="n">
-        <v>472.4633381951312</v>
+        <v>472.4633381951315</v>
       </c>
       <c r="O44" t="n">
-        <v>393.3630364901633</v>
+        <v>393.3630364901632</v>
       </c>
       <c r="P44" t="n">
-        <v>303.2439681809287</v>
+        <v>303.2439681809286</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.0427086485849</v>
+        <v>150.0427086485848</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>86.44787516325601</v>
+        <v>75.87641911283694</v>
       </c>
       <c r="K45" t="n">
-        <v>193.5093305425712</v>
+        <v>275.5376515011494</v>
       </c>
       <c r="L45" t="n">
-        <v>428.3160691941213</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>558.5484028083506</v>
+        <v>558.5484028083505</v>
       </c>
       <c r="N45" t="n">
         <v>586.8617220758896</v>
       </c>
       <c r="O45" t="n">
-        <v>460.5928819789428</v>
+        <v>460.5928819789427</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>356.8592042859626</v>
       </c>
       <c r="Q45" t="n">
         <v>193.9332588536051</v>
@@ -38175,25 +38175,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>60.32079148293855</v>
+        <v>182.8208085536627</v>
       </c>
       <c r="L46" t="n">
-        <v>135.3770055826082</v>
+        <v>234.0638824864967</v>
       </c>
       <c r="M46" t="n">
-        <v>277.2739135072941</v>
+        <v>277.273913507294</v>
       </c>
       <c r="N46" t="n">
-        <v>253.0477247766919</v>
+        <v>154.3608478728041</v>
       </c>
       <c r="O46" t="n">
-        <v>254.0484023695781</v>
+        <v>131.5483852988539</v>
       </c>
       <c r="P46" t="n">
-        <v>91.06320166303009</v>
+        <v>91.06320166303007</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.3590107832774</v>
+        <v>103.3590107832773</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
